--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_12_28.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_12_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>986979.0701511303</v>
+        <v>982664.6395500975</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>21931069.12885897</v>
+        <v>21931069.12885896</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7082572.903550358</v>
+        <v>7082572.903550359</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6159500.953721745</v>
+        <v>6159500.953721747</v>
       </c>
     </row>
     <row r="11">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6.11896786784456</v>
+        <v>8.094529853985728</v>
       </c>
       <c r="C2" t="n">
         <v>6.023344779862555</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>1.97556198614117</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -749,16 +749,16 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
+        <v>8.981353179542184</v>
+      </c>
+      <c r="G3" t="n">
         <v>10.19681332827224</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>10.19681332827224</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>10.19681332827224</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -791,10 +791,10 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>10.19681332827224</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>8.981353179542184</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -822,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>10.19681332827224</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -864,25 +864,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>10.19681332827224</v>
       </c>
       <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
         <v>10.19681332827224</v>
       </c>
-      <c r="T4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0</v>
-      </c>
       <c r="V4" t="n">
-        <v>10.19681332827224</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>10.19681332827224</v>
+        <v>8.981353179542182</v>
       </c>
       <c r="X4" t="n">
-        <v>8.981353179542182</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -946,10 +946,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>1.97556198614117</v>
       </c>
       <c r="T5" t="n">
-        <v>1.97556198614117</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -974,28 +974,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>10.19681332827224</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>10.19681332827224</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>8.981353179542184</v>
       </c>
       <c r="F6" t="n">
-        <v>8.981353179542182</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>10.19681332827224</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>10.19681332827224</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>10.19681332827224</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>8.981353179542182</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1107,16 +1107,16 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>10.19681332827224</v>
       </c>
       <c r="U7" t="n">
         <v>10.19681332827224</v>
       </c>
       <c r="V7" t="n">
-        <v>10.19681332827224</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>8.981353179542182</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1220,13 +1220,13 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>8.981353179542184</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>10.19681332827224</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>10.19681332827224</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1265,16 +1265,16 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>10.19681332827224</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>10.19681332827224</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>8.981353179542182</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1290,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8.981353179542182</v>
+        <v>10.19681332827224</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>10.19681332827224</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>10.19681332827224</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1350,16 +1350,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>10.19681332827224</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>10.19681332827224</v>
+        <v>8.981353179542184</v>
       </c>
       <c r="Y10" t="n">
-        <v>10.19681332827224</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>406.0233447798626</v>
@@ -1378,10 +1378,10 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1423,22 +1423,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>127.0654980538244</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>254.331145362691</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>85.79990005507648</v>
       </c>
       <c r="W11" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="12">
@@ -1548,7 +1548,7 @@
         <v>140.197809816575</v>
       </c>
       <c r="I13" t="n">
-        <v>88.4156199024802</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>44.3990082113859</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>169.0162806295986</v>
@@ -1584,16 +1584,16 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>34.35548935747745</v>
+        <v>279.921616465067</v>
       </c>
       <c r="V13" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>158.3953886161494</v>
       </c>
       <c r="Y13" t="n">
         <v>222.4883416251229</v>
@@ -1609,22 +1609,22 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C14" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>44.1535027581031</v>
       </c>
       <c r="H14" t="n">
-        <v>287.4780251328136</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1666,16 +1666,16 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y14" t="n">
-        <v>43.4613587385001</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="15">
@@ -1773,10 +1773,10 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.2335283466927</v>
       </c>
       <c r="F16" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>164.6878127354272</v>
@@ -1785,7 +1785,7 @@
         <v>140.197809816575</v>
       </c>
       <c r="I16" t="n">
-        <v>88.4156199024802</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,25 +1815,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>169.0162806295986</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>233.3502063485754</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W16" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y16" t="n">
-        <v>222.0622595894335</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="17">
@@ -1843,28 +1843,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>183.1692553500027</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>324.6633089615333</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>8.989743158120675</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,22 +1894,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>88.71175159474804</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>254.331145362691</v>
       </c>
       <c r="V17" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X17" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>396.9273063213908</v>
@@ -2004,10 +2004,10 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C19" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E19" t="n">
         <v>159.3017069803637</v>
@@ -2016,13 +2016,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
-        <v>164.6878127354272</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.197809816575</v>
       </c>
       <c r="I19" t="n">
-        <v>88.4156199024802</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>44.3990082113859</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>169.0162806295986</v>
@@ -2058,19 +2058,19 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>279.921616465067</v>
       </c>
       <c r="V19" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>276.2789678462144</v>
+        <v>256.5052165465639</v>
       </c>
       <c r="X19" t="n">
-        <v>138.464561366705</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="20">
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -2089,7 +2089,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>410.1968133282722</v>
+        <v>207.3681539377011</v>
       </c>
       <c r="F20" t="n">
         <v>416.8201079258493</v>
@@ -2101,7 +2101,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>8.989743158120675</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,22 +2131,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>88.71175159474804</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>211.2982849266778</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>254.331145362691</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X20" t="n">
-        <v>334.3059956400051</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2247,19 +2247,19 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E22" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>164.6878127354272</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.197809816575</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>88.4156199024802</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,13 +2289,13 @@
         <v>44.3990082113859</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>164.59520748354</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>233.3502063485754</v>
       </c>
       <c r="U22" t="n">
-        <v>184.7676078569446</v>
+        <v>279.921616465067</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2307,7 +2307,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="23">
@@ -2320,7 +2320,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -2329,13 +2329,13 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G23" t="n">
-        <v>168.9376655950953</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>287.4780251328136</v>
       </c>
       <c r="I23" t="n">
         <v>8.989743158120675</v>
@@ -2368,25 +2368,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>88.71175159474804</v>
       </c>
       <c r="T23" t="n">
-        <v>211.2982849266778</v>
+        <v>186.1433563427772</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>254.331145362691</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W23" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X23" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>44.3990082113859</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2532,13 +2532,13 @@
         <v>233.3502063485754</v>
       </c>
       <c r="U25" t="n">
-        <v>279.921616465067</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>134.1206133095902</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>187.2943503761701</v>
       </c>
       <c r="X25" t="n">
         <v>235.9604235189134</v>
@@ -2554,22 +2554,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C26" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>148.1992998954072</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2605,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>88.71175159474804</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>211.2982849266778</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>254.331145362691</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W26" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>85.72367287198836</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="27">
@@ -2718,22 +2718,22 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F28" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G28" t="n">
-        <v>164.6878127354272</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.197809816575</v>
+        <v>13.27842612009145</v>
       </c>
       <c r="I28" t="n">
-        <v>88.4156199024802</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>23.74567939382752</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>169.0162806295986</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>233.3502063485754</v>
       </c>
       <c r="U28" t="n">
         <v>279.921616465067</v>
@@ -2797,10 +2797,10 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>400.41929060787</v>
+        <v>30.64008857600299</v>
       </c>
       <c r="E29" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>416.8201079258493</v>
@@ -2809,10 +2809,10 @@
         <v>402.6567330111716</v>
       </c>
       <c r="H29" t="n">
-        <v>283.210444655807</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>8.989743158120675</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2845,22 +2845,22 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>211.2982849266778</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>254.331145362691</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="30">
@@ -2952,10 +2952,10 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C31" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>159.3017069803637</v>
@@ -2970,7 +2970,7 @@
         <v>140.197809816575</v>
       </c>
       <c r="I31" t="n">
-        <v>66.37514532175055</v>
+        <v>88.4156199024802</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>11.84796400463275</v>
       </c>
       <c r="S31" t="n">
         <v>169.0162806295986</v>
@@ -3006,7 +3006,7 @@
         <v>233.3502063485754</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>279.921616465067</v>
       </c>
       <c r="V31" t="n">
         <v>271.1468876098733</v>
@@ -3015,10 +3015,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y31" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3028,28 +3028,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>3.794510126887282</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>185.3870524337274</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F32" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>402.6567330111716</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>287.4780251328136</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>8.989743158120675</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3082,22 +3082,22 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>211.2982849266778</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>254.331145362691</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X32" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y32" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3201,10 +3201,10 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G34" t="n">
-        <v>164.6878127354272</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>130.8540833938171</v>
+        <v>88.72893423834815</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3237,16 +3237,16 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>169.0162806295986</v>
       </c>
       <c r="T34" t="n">
-        <v>233.3502063485754</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>279.921616465067</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W34" t="n">
         <v>276.2789678462144</v>
@@ -3268,7 +3268,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>310.4856267017761</v>
       </c>
       <c r="D35" t="n">
         <v>400.41929060787</v>
@@ -3280,7 +3280,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>402.6567330111716</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3319,22 +3319,22 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>211.2982849266778</v>
       </c>
       <c r="U35" t="n">
-        <v>44.12375332829675</v>
+        <v>254.331145362691</v>
       </c>
       <c r="V35" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="36">
@@ -3429,13 +3429,13 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G37" t="n">
         <v>164.6878127354272</v>
@@ -3471,22 +3471,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>44.3990082113859</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>169.0162806295986</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>233.3502063485754</v>
       </c>
       <c r="U37" t="n">
-        <v>230.915747552602</v>
+        <v>7.073578050028161</v>
       </c>
       <c r="V37" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W37" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>235.9604235189134</v>
@@ -3514,16 +3514,16 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>144.533007414741</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G38" t="n">
-        <v>402.6567330111716</v>
+        <v>163.2364348608053</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>287.4780251328136</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>8.989743158120675</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3562,16 +3562,16 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="39">
@@ -3678,7 +3678,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>95.74702631537154</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3711,10 +3711,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>169.0162806295986</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>160.0809520343481</v>
+        <v>233.3502063485754</v>
       </c>
       <c r="U40" t="n">
         <v>279.921616465067</v>
@@ -3739,22 +3739,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>374.0621151272016</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F41" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>402.6567330111716</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3790,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>88.71175159474804</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>211.2982849266778</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -3805,7 +3805,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X41" t="n">
-        <v>396.636963852737</v>
+        <v>67.82675741955414</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3906,19 +3906,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>164.6878127354272</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.197809816575</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>66.45455233426502</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3951,13 +3951,13 @@
         <v>169.0162806295986</v>
       </c>
       <c r="T43" t="n">
-        <v>224.1751217629828</v>
+        <v>233.3502063485754</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
         <v>276.2789678462144</v>
@@ -3976,19 +3976,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>88.71175159474804</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -4036,16 +4036,16 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>247.9273095365403</v>
       </c>
       <c r="W44" t="n">
-        <v>364.3920349513077</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4137,22 +4137,22 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
-        <v>51.71417618828749</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>164.6878127354272</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.197809816575</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>44.3990082113859</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>169.0162806295986</v>
       </c>
       <c r="T46" t="n">
-        <v>233.3502063485754</v>
+        <v>218.1732865693487</v>
       </c>
       <c r="U46" t="n">
-        <v>279.921616465067</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>271.1468876098733</v>
@@ -4200,7 +4200,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>222.4883416251229</v>
@@ -4333,22 +4333,22 @@
         <v>0.8157450662617793</v>
       </c>
       <c r="K2" t="n">
+        <v>0.8157450662617793</v>
+      </c>
+      <c r="L2" t="n">
         <v>10.50271772812041</v>
-      </c>
-      <c r="L2" t="n">
-        <v>20.59756292310993</v>
       </c>
       <c r="M2" t="n">
         <v>20.59756292310993</v>
       </c>
       <c r="N2" t="n">
+        <v>20.59756292310993</v>
+      </c>
+      <c r="O2" t="n">
+        <v>20.59756292310993</v>
+      </c>
+      <c r="P2" t="n">
         <v>30.69240811809945</v>
-      </c>
-      <c r="O2" t="n">
-        <v>40.78725331308897</v>
-      </c>
-      <c r="P2" t="n">
-        <v>40.78725331308897</v>
       </c>
       <c r="Q2" t="n">
         <v>40.78725331308897</v>
@@ -4357,25 +4357,25 @@
         <v>40.78725331308897</v>
       </c>
       <c r="S2" t="n">
-        <v>38.79173615537061</v>
+        <v>40.78725331308897</v>
       </c>
       <c r="T2" t="n">
-        <v>38.79173615537061</v>
+        <v>40.78725331308897</v>
       </c>
       <c r="U2" t="n">
-        <v>38.79173615537061</v>
+        <v>40.78725331308897</v>
       </c>
       <c r="V2" t="n">
-        <v>38.79173615537061</v>
+        <v>40.78725331308897</v>
       </c>
       <c r="W2" t="n">
-        <v>38.79173615537061</v>
+        <v>40.78725331308897</v>
       </c>
       <c r="X2" t="n">
-        <v>38.79173615537061</v>
+        <v>40.78725331308897</v>
       </c>
       <c r="Y2" t="n">
-        <v>38.79173615537061</v>
+        <v>40.78725331308897</v>
       </c>
     </row>
     <row r="3">
@@ -4385,46 +4385,46 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>40.78725331308897</v>
+      </c>
+      <c r="C3" t="n">
+        <v>40.78725331308897</v>
+      </c>
+      <c r="D3" t="n">
+        <v>40.78725331308897</v>
+      </c>
+      <c r="E3" t="n">
+        <v>40.78725331308897</v>
+      </c>
+      <c r="F3" t="n">
+        <v>31.71517939435949</v>
+      </c>
+      <c r="G3" t="n">
         <v>21.41536795166025</v>
       </c>
-      <c r="C3" t="n">
-        <v>21.41536795166025</v>
-      </c>
-      <c r="D3" t="n">
-        <v>21.41536795166025</v>
-      </c>
-      <c r="E3" t="n">
-        <v>21.41536795166025</v>
-      </c>
-      <c r="F3" t="n">
+      <c r="H3" t="n">
         <v>11.11555650896102</v>
-      </c>
-      <c r="G3" t="n">
-        <v>11.11555650896102</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.8157450662617793</v>
       </c>
       <c r="I3" t="n">
         <v>0.8157450662617793</v>
       </c>
       <c r="J3" t="n">
-        <v>10.50271772812041</v>
+        <v>10.9105902612513</v>
       </c>
       <c r="K3" t="n">
-        <v>10.50271772812041</v>
+        <v>20.59756292310993</v>
       </c>
       <c r="L3" t="n">
-        <v>10.50271772812041</v>
+        <v>20.59756292310993</v>
       </c>
       <c r="M3" t="n">
         <v>20.59756292310993</v>
       </c>
       <c r="N3" t="n">
-        <v>30.69240811809945</v>
+        <v>20.59756292310993</v>
       </c>
       <c r="O3" t="n">
-        <v>30.69240811809945</v>
+        <v>20.59756292310993</v>
       </c>
       <c r="P3" t="n">
         <v>30.69240811809945</v>
@@ -4439,22 +4439,22 @@
         <v>40.78725331308897</v>
       </c>
       <c r="T3" t="n">
-        <v>30.48744187038973</v>
+        <v>40.78725331308897</v>
       </c>
       <c r="U3" t="n">
-        <v>21.41536795166025</v>
+        <v>40.78725331308897</v>
       </c>
       <c r="V3" t="n">
-        <v>21.41536795166025</v>
+        <v>40.78725331308897</v>
       </c>
       <c r="W3" t="n">
-        <v>21.41536795166025</v>
+        <v>40.78725331308897</v>
       </c>
       <c r="X3" t="n">
-        <v>21.41536795166025</v>
+        <v>40.78725331308897</v>
       </c>
       <c r="Y3" t="n">
-        <v>21.41536795166025</v>
+        <v>40.78725331308897</v>
       </c>
     </row>
     <row r="4">
@@ -4464,10 +4464,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8157450662617793</v>
+        <v>11.11555650896102</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8157450662617793</v>
+        <v>11.11555650896102</v>
       </c>
       <c r="D4" t="n">
         <v>0.8157450662617793</v>
@@ -4488,22 +4488,22 @@
         <v>0.8157450662617793</v>
       </c>
       <c r="J4" t="n">
-        <v>0.8157450662617793</v>
+        <v>10.9105902612513</v>
       </c>
       <c r="K4" t="n">
-        <v>0.8157450662617793</v>
+        <v>21.00543545624082</v>
       </c>
       <c r="L4" t="n">
-        <v>10.9105902612513</v>
+        <v>31.10028065123034</v>
       </c>
       <c r="M4" t="n">
-        <v>21.00543545624082</v>
+        <v>31.10028065123034</v>
       </c>
       <c r="N4" t="n">
         <v>31.10028065123034</v>
       </c>
       <c r="O4" t="n">
-        <v>40.78725331308897</v>
+        <v>31.10028065123034</v>
       </c>
       <c r="P4" t="n">
         <v>40.78725331308897</v>
@@ -4512,7 +4512,7 @@
         <v>40.78725331308897</v>
       </c>
       <c r="R4" t="n">
-        <v>40.78725331308897</v>
+        <v>30.48744187038973</v>
       </c>
       <c r="S4" t="n">
         <v>30.48744187038973</v>
@@ -4521,19 +4521,19 @@
         <v>30.48744187038973</v>
       </c>
       <c r="U4" t="n">
-        <v>30.48744187038973</v>
+        <v>20.18763042769049</v>
       </c>
       <c r="V4" t="n">
         <v>20.18763042769049</v>
       </c>
       <c r="W4" t="n">
-        <v>9.887818984991258</v>
+        <v>11.11555650896102</v>
       </c>
       <c r="X4" t="n">
-        <v>0.8157450662617793</v>
+        <v>11.11555650896102</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.8157450662617793</v>
+        <v>11.11555650896102</v>
       </c>
     </row>
     <row r="5">
@@ -4573,19 +4573,19 @@
         <v>0.8157450662617793</v>
       </c>
       <c r="L5" t="n">
-        <v>0.8157450662617793</v>
+        <v>10.9105902612513</v>
       </c>
       <c r="M5" t="n">
-        <v>0.8157450662617793</v>
+        <v>20.59756292310993</v>
       </c>
       <c r="N5" t="n">
-        <v>10.9105902612513</v>
+        <v>20.59756292310993</v>
       </c>
       <c r="O5" t="n">
-        <v>21.00543545624082</v>
+        <v>30.69240811809945</v>
       </c>
       <c r="P5" t="n">
-        <v>31.10028065123034</v>
+        <v>30.69240811809945</v>
       </c>
       <c r="Q5" t="n">
         <v>40.78725331308897</v>
@@ -4594,7 +4594,7 @@
         <v>40.78725331308897</v>
       </c>
       <c r="S5" t="n">
-        <v>40.78725331308897</v>
+        <v>38.79173615537061</v>
       </c>
       <c r="T5" t="n">
         <v>38.79173615537061</v>
@@ -4622,49 +4622,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>30.48744187038973</v>
+        <v>40.78725331308897</v>
       </c>
       <c r="C6" t="n">
-        <v>20.18763042769049</v>
+        <v>40.78725331308897</v>
       </c>
       <c r="D6" t="n">
-        <v>20.18763042769049</v>
+        <v>40.78725331308897</v>
       </c>
       <c r="E6" t="n">
-        <v>20.18763042769049</v>
+        <v>31.71517939435949</v>
       </c>
       <c r="F6" t="n">
+        <v>31.71517939435949</v>
+      </c>
+      <c r="G6" t="n">
+        <v>21.41536795166025</v>
+      </c>
+      <c r="H6" t="n">
         <v>11.11555650896102</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.8157450662617793</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.8157450662617793</v>
       </c>
       <c r="I6" t="n">
         <v>0.8157450662617793</v>
       </c>
       <c r="J6" t="n">
-        <v>0.8157450662617793</v>
+        <v>10.9105902612513</v>
       </c>
       <c r="K6" t="n">
-        <v>10.9105902612513</v>
+        <v>21.00543545624082</v>
       </c>
       <c r="L6" t="n">
-        <v>10.9105902612513</v>
+        <v>30.69240811809945</v>
       </c>
       <c r="M6" t="n">
-        <v>10.9105902612513</v>
+        <v>30.69240811809945</v>
       </c>
       <c r="N6" t="n">
-        <v>20.59756292310993</v>
+        <v>30.69240811809945</v>
       </c>
       <c r="O6" t="n">
-        <v>20.59756292310993</v>
+        <v>30.69240811809945</v>
       </c>
       <c r="P6" t="n">
-        <v>30.69240811809945</v>
+        <v>40.78725331308897</v>
       </c>
       <c r="Q6" t="n">
         <v>40.78725331308897</v>
@@ -4701,10 +4701,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8157450662617793</v>
+        <v>9.887818984991258</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8157450662617793</v>
+        <v>9.887818984991258</v>
       </c>
       <c r="D7" t="n">
         <v>0.8157450662617793</v>
@@ -4731,19 +4731,19 @@
         <v>0.8157450662617793</v>
       </c>
       <c r="L7" t="n">
-        <v>0.8157450662617793</v>
+        <v>10.50271772812041</v>
       </c>
       <c r="M7" t="n">
-        <v>10.9105902612513</v>
+        <v>10.50271772812041</v>
       </c>
       <c r="N7" t="n">
-        <v>10.9105902612513</v>
+        <v>20.59756292310993</v>
       </c>
       <c r="O7" t="n">
-        <v>21.00543545624082</v>
+        <v>30.69240811809945</v>
       </c>
       <c r="P7" t="n">
-        <v>31.10028065123034</v>
+        <v>40.78725331308897</v>
       </c>
       <c r="Q7" t="n">
         <v>40.78725331308897</v>
@@ -4755,22 +4755,22 @@
         <v>30.48744187038973</v>
       </c>
       <c r="T7" t="n">
-        <v>30.48744187038973</v>
+        <v>20.18763042769049</v>
       </c>
       <c r="U7" t="n">
-        <v>20.18763042769049</v>
+        <v>9.887818984991258</v>
       </c>
       <c r="V7" t="n">
         <v>9.887818984991258</v>
       </c>
       <c r="W7" t="n">
-        <v>0.8157450662617793</v>
+        <v>9.887818984991258</v>
       </c>
       <c r="X7" t="n">
-        <v>0.8157450662617793</v>
+        <v>9.887818984991258</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.8157450662617793</v>
+        <v>9.887818984991258</v>
       </c>
     </row>
     <row r="8">
@@ -4810,16 +4810,16 @@
         <v>0.8157450662617793</v>
       </c>
       <c r="L8" t="n">
-        <v>10.9105902612513</v>
+        <v>0.8157450662617793</v>
       </c>
       <c r="M8" t="n">
-        <v>10.9105902612513</v>
+        <v>0.8157450662617793</v>
       </c>
       <c r="N8" t="n">
-        <v>10.9105902612513</v>
+        <v>0.8157450662617793</v>
       </c>
       <c r="O8" t="n">
-        <v>20.59756292310993</v>
+        <v>10.50271772812041</v>
       </c>
       <c r="P8" t="n">
         <v>20.59756292310993</v>
@@ -4859,19 +4859,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>11.11555650896102</v>
+        <v>40.78725331308897</v>
       </c>
       <c r="C9" t="n">
-        <v>11.11555650896102</v>
+        <v>40.78725331308897</v>
       </c>
       <c r="D9" t="n">
-        <v>11.11555650896102</v>
+        <v>40.78725331308897</v>
       </c>
       <c r="E9" t="n">
-        <v>11.11555650896102</v>
+        <v>31.71517939435949</v>
       </c>
       <c r="F9" t="n">
-        <v>11.11555650896102</v>
+        <v>21.41536795166025</v>
       </c>
       <c r="G9" t="n">
         <v>11.11555650896102</v>
@@ -4883,25 +4883,25 @@
         <v>0.8157450662617793</v>
       </c>
       <c r="J9" t="n">
-        <v>0.8157450662617793</v>
+        <v>10.50271772812041</v>
       </c>
       <c r="K9" t="n">
         <v>10.50271772812041</v>
       </c>
       <c r="L9" t="n">
-        <v>10.50271772812041</v>
+        <v>20.59756292310993</v>
       </c>
       <c r="M9" t="n">
-        <v>10.50271772812041</v>
+        <v>20.59756292310993</v>
       </c>
       <c r="N9" t="n">
-        <v>10.50271772812041</v>
+        <v>20.59756292310993</v>
       </c>
       <c r="O9" t="n">
         <v>20.59756292310993</v>
       </c>
       <c r="P9" t="n">
-        <v>20.59756292310993</v>
+        <v>30.69240811809945</v>
       </c>
       <c r="Q9" t="n">
         <v>30.69240811809945</v>
@@ -4913,22 +4913,22 @@
         <v>40.78725331308897</v>
       </c>
       <c r="T9" t="n">
-        <v>30.48744187038973</v>
+        <v>40.78725331308897</v>
       </c>
       <c r="U9" t="n">
-        <v>20.18763042769049</v>
+        <v>40.78725331308897</v>
       </c>
       <c r="V9" t="n">
-        <v>20.18763042769049</v>
+        <v>40.78725331308897</v>
       </c>
       <c r="W9" t="n">
-        <v>11.11555650896102</v>
+        <v>40.78725331308897</v>
       </c>
       <c r="X9" t="n">
-        <v>11.11555650896102</v>
+        <v>40.78725331308897</v>
       </c>
       <c r="Y9" t="n">
-        <v>11.11555650896102</v>
+        <v>40.78725331308897</v>
       </c>
     </row>
     <row r="10">
@@ -4938,7 +4938,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.8157450662617793</v>
+        <v>11.11555650896102</v>
       </c>
       <c r="C10" t="n">
         <v>0.8157450662617793</v>
@@ -4962,40 +4962,40 @@
         <v>0.8157450662617793</v>
       </c>
       <c r="J10" t="n">
-        <v>0.8157450662617793</v>
+        <v>10.9105902612513</v>
       </c>
       <c r="K10" t="n">
-        <v>0.8157450662617793</v>
+        <v>21.00543545624082</v>
       </c>
       <c r="L10" t="n">
-        <v>0.8157450662617793</v>
+        <v>21.00543545624082</v>
       </c>
       <c r="M10" t="n">
-        <v>10.9105902612513</v>
+        <v>21.00543545624082</v>
       </c>
       <c r="N10" t="n">
-        <v>20.59756292310993</v>
+        <v>21.00543545624082</v>
       </c>
       <c r="O10" t="n">
+        <v>21.00543545624082</v>
+      </c>
+      <c r="P10" t="n">
         <v>30.69240811809945</v>
-      </c>
-      <c r="P10" t="n">
-        <v>40.78725331308897</v>
       </c>
       <c r="Q10" t="n">
         <v>40.78725331308897</v>
       </c>
       <c r="R10" t="n">
-        <v>40.78725331308897</v>
+        <v>30.48744187038973</v>
       </c>
       <c r="S10" t="n">
-        <v>40.78725331308897</v>
+        <v>30.48744187038973</v>
       </c>
       <c r="T10" t="n">
-        <v>40.78725331308897</v>
+        <v>30.48744187038973</v>
       </c>
       <c r="U10" t="n">
-        <v>40.78725331308897</v>
+        <v>30.48744187038973</v>
       </c>
       <c r="V10" t="n">
         <v>30.48744187038973</v>
@@ -5004,10 +5004,10 @@
         <v>30.48744187038973</v>
       </c>
       <c r="X10" t="n">
-        <v>20.18763042769049</v>
+        <v>21.41536795166025</v>
       </c>
       <c r="Y10" t="n">
-        <v>9.887818984991258</v>
+        <v>21.41536795166025</v>
       </c>
     </row>
     <row r="11">
@@ -5017,16 +5017,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>450.7368070910412</v>
+        <v>1286.107434620457</v>
       </c>
       <c r="C11" t="n">
-        <v>40.61221640431133</v>
+        <v>875.9828439337271</v>
       </c>
       <c r="D11" t="n">
-        <v>40.61221640431133</v>
+        <v>875.9828439337271</v>
       </c>
       <c r="E11" t="n">
-        <v>40.61221640431133</v>
+        <v>461.6426284506238</v>
       </c>
       <c r="F11" t="n">
         <v>40.61221640431133</v>
@@ -5041,13 +5041,13 @@
         <v>40.61221640431133</v>
       </c>
       <c r="J11" t="n">
-        <v>134.750025907721</v>
+        <v>461.5258527954501</v>
       </c>
       <c r="K11" t="n">
-        <v>296.3872995332651</v>
+        <v>715.5665214912303</v>
       </c>
       <c r="L11" t="n">
-        <v>681.0395074911316</v>
+        <v>931.0370659216223</v>
       </c>
       <c r="M11" t="n">
         <v>1183.615685494484</v>
@@ -5071,22 +5071,22 @@
         <v>2030.610820215566</v>
       </c>
       <c r="T11" t="n">
-        <v>1902.261832282411</v>
+        <v>2030.610820215566</v>
       </c>
       <c r="U11" t="n">
-        <v>1645.36168545141</v>
+        <v>1773.710673384565</v>
       </c>
       <c r="V11" t="n">
-        <v>1645.36168545141</v>
+        <v>1687.044107672367</v>
       </c>
       <c r="W11" t="n">
-        <v>1261.601384586578</v>
+        <v>1687.044107672367</v>
       </c>
       <c r="X11" t="n">
-        <v>860.9579867555307</v>
+        <v>1687.044107672367</v>
       </c>
       <c r="Y11" t="n">
-        <v>860.9579867555307</v>
+        <v>1286.107434620457</v>
       </c>
     </row>
     <row r="12">
@@ -5117,25 +5117,25 @@
         <v>40.61221640431133</v>
       </c>
       <c r="I12" t="n">
-        <v>40.61221640431133</v>
+        <v>56.46434519921166</v>
       </c>
       <c r="J12" t="n">
-        <v>332.727226793036</v>
+        <v>348.5793555879363</v>
       </c>
       <c r="K12" t="n">
-        <v>447.1828976302506</v>
+        <v>463.0350264251509</v>
       </c>
       <c r="L12" t="n">
-        <v>619.8433009457999</v>
+        <v>635.6954297407003</v>
       </c>
       <c r="M12" t="n">
-        <v>891.1907313038317</v>
+        <v>845.0215081546153</v>
       </c>
       <c r="N12" t="n">
-        <v>1111.892549335055</v>
+        <v>1065.723326185838</v>
       </c>
       <c r="O12" t="n">
-        <v>1304.792578178162</v>
+        <v>1258.623355028945</v>
       </c>
       <c r="P12" t="n">
         <v>1451.781965863177</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1094.016156818029</v>
+        <v>1004.707449845827</v>
       </c>
       <c r="C13" t="n">
-        <v>922.9227843797455</v>
+        <v>833.6140774075434</v>
       </c>
       <c r="D13" t="n">
-        <v>763.4281397026555</v>
+        <v>674.1194327304534</v>
       </c>
       <c r="E13" t="n">
-        <v>602.517324570975</v>
+        <v>513.2086175987729</v>
       </c>
       <c r="F13" t="n">
-        <v>437.8861986815663</v>
+        <v>348.5774917093642</v>
       </c>
       <c r="G13" t="n">
-        <v>271.5348726861853</v>
+        <v>182.2261657139831</v>
       </c>
       <c r="H13" t="n">
-        <v>129.9209233765136</v>
+        <v>40.61221640431133</v>
       </c>
       <c r="I13" t="n">
         <v>40.61221640431133</v>
@@ -5202,19 +5202,19 @@
         <v>116.9937452684586</v>
       </c>
       <c r="K13" t="n">
-        <v>373.9224337320121</v>
+        <v>274.9377045173412</v>
       </c>
       <c r="L13" t="n">
-        <v>764.8260288135966</v>
+        <v>351.8621883639026</v>
       </c>
       <c r="M13" t="n">
-        <v>1192.21806555632</v>
+        <v>779.2542251066263</v>
       </c>
       <c r="N13" t="n">
-        <v>1455.834096635854</v>
+        <v>1194.936613162736</v>
       </c>
       <c r="O13" t="n">
-        <v>1839.944601861075</v>
+        <v>1579.047118387957</v>
       </c>
       <c r="P13" t="n">
         <v>1891.296510382675</v>
@@ -5223,28 +5223,28 @@
         <v>2030.610820215566</v>
       </c>
       <c r="R13" t="n">
-        <v>1985.763337173762</v>
+        <v>2030.610820215566</v>
       </c>
       <c r="S13" t="n">
-        <v>1815.039821386289</v>
+        <v>1859.887304428093</v>
       </c>
       <c r="T13" t="n">
-        <v>1815.039821386289</v>
+        <v>1859.887304428093</v>
       </c>
       <c r="U13" t="n">
-        <v>1780.337306883787</v>
+        <v>1577.138196887621</v>
       </c>
       <c r="V13" t="n">
-        <v>1506.451561823309</v>
+        <v>1577.138196887621</v>
       </c>
       <c r="W13" t="n">
-        <v>1506.451561823309</v>
+        <v>1577.138196887621</v>
       </c>
       <c r="X13" t="n">
-        <v>1506.451561823309</v>
+        <v>1417.142854851107</v>
       </c>
       <c r="Y13" t="n">
-        <v>1281.715863212073</v>
+        <v>1192.407156239871</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1576.489278188956</v>
+        <v>85.21171413976901</v>
       </c>
       <c r="C14" t="n">
-        <v>1166.364687502226</v>
+        <v>85.21171413976901</v>
       </c>
       <c r="D14" t="n">
-        <v>1166.364687502226</v>
+        <v>85.21171413976901</v>
       </c>
       <c r="E14" t="n">
-        <v>752.0244720191224</v>
+        <v>85.21171413976901</v>
       </c>
       <c r="F14" t="n">
-        <v>330.99405997281</v>
+        <v>85.21171413976901</v>
       </c>
       <c r="G14" t="n">
-        <v>330.99405997281</v>
+        <v>40.61221640431133</v>
       </c>
       <c r="H14" t="n">
         <v>40.61221640431133</v>
@@ -5278,19 +5278,19 @@
         <v>40.61221640431133</v>
       </c>
       <c r="J14" t="n">
-        <v>134.750025907721</v>
+        <v>461.5258527954501</v>
       </c>
       <c r="K14" t="n">
-        <v>296.3872995332651</v>
+        <v>715.5665214912303</v>
       </c>
       <c r="L14" t="n">
-        <v>798.9634775366178</v>
+        <v>931.0370659216223</v>
       </c>
       <c r="M14" t="n">
-        <v>1051.54209710948</v>
+        <v>1183.615685494484</v>
       </c>
       <c r="N14" t="n">
-        <v>1310.076295203275</v>
+        <v>1442.149883588279</v>
       </c>
       <c r="O14" t="n">
         <v>1680.875614876295</v>
@@ -5314,16 +5314,16 @@
         <v>2030.610820215566</v>
       </c>
       <c r="V14" t="n">
-        <v>2030.610820215566</v>
+        <v>1680.773265552047</v>
       </c>
       <c r="W14" t="n">
-        <v>2030.610820215566</v>
+        <v>1297.012964687216</v>
       </c>
       <c r="X14" t="n">
-        <v>2030.610820215566</v>
+        <v>896.3695668561684</v>
       </c>
       <c r="Y14" t="n">
-        <v>1986.710457853445</v>
+        <v>495.4328938042585</v>
       </c>
     </row>
     <row r="15">
@@ -5357,25 +5357,25 @@
         <v>56.46434519921166</v>
       </c>
       <c r="J15" t="n">
-        <v>104.910951613303</v>
+        <v>348.5793555879363</v>
       </c>
       <c r="K15" t="n">
-        <v>219.3666224505176</v>
+        <v>851.155533591289</v>
       </c>
       <c r="L15" t="n">
-        <v>392.027025766067</v>
+        <v>1023.815936906838</v>
       </c>
       <c r="M15" t="n">
-        <v>894.6032037694197</v>
+        <v>1233.142015320753</v>
       </c>
       <c r="N15" t="n">
-        <v>1397.179381772772</v>
+        <v>1453.843833351976</v>
       </c>
       <c r="O15" t="n">
-        <v>1590.079410615879</v>
+        <v>1646.743862195083</v>
       </c>
       <c r="P15" t="n">
-        <v>1737.068798300895</v>
+        <v>1793.733249880099</v>
       </c>
       <c r="Q15" t="n">
         <v>1935.793361323381</v>
@@ -5412,46 +5412,46 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>933.1053416863485</v>
+        <v>826.8761435183666</v>
       </c>
       <c r="C16" t="n">
-        <v>762.011969248065</v>
+        <v>655.7827710800831</v>
       </c>
       <c r="D16" t="n">
-        <v>602.517324570975</v>
+        <v>496.2881264029931</v>
       </c>
       <c r="E16" t="n">
-        <v>602.517324570975</v>
+        <v>348.5774917093642</v>
       </c>
       <c r="F16" t="n">
-        <v>437.8861986815663</v>
+        <v>348.5774917093642</v>
       </c>
       <c r="G16" t="n">
-        <v>271.5348726861853</v>
+        <v>182.2261657139831</v>
       </c>
       <c r="H16" t="n">
-        <v>129.9209233765136</v>
+        <v>40.61221640431133</v>
       </c>
       <c r="I16" t="n">
         <v>40.61221640431133</v>
       </c>
       <c r="J16" t="n">
-        <v>51.99238163712219</v>
+        <v>116.9937452684586</v>
       </c>
       <c r="K16" t="n">
-        <v>308.9210701006758</v>
+        <v>221.8560767554364</v>
       </c>
       <c r="L16" t="n">
-        <v>699.8246651822602</v>
+        <v>612.7596718370208</v>
       </c>
       <c r="M16" t="n">
-        <v>1111.288526554212</v>
+        <v>1040.151708579745</v>
       </c>
       <c r="N16" t="n">
-        <v>1194.936613162736</v>
+        <v>1455.834096635854</v>
       </c>
       <c r="O16" t="n">
-        <v>1579.047118387957</v>
+        <v>1839.944601861075</v>
       </c>
       <c r="P16" t="n">
         <v>1891.296510382675</v>
@@ -5463,25 +5463,25 @@
         <v>2030.610820215566</v>
       </c>
       <c r="S16" t="n">
-        <v>1859.887304428093</v>
+        <v>2030.610820215566</v>
       </c>
       <c r="T16" t="n">
-        <v>1624.180025288118</v>
+        <v>2030.610820215566</v>
       </c>
       <c r="U16" t="n">
-        <v>1624.180025288118</v>
+        <v>2030.610820215566</v>
       </c>
       <c r="V16" t="n">
-        <v>1624.180025288118</v>
+        <v>1756.725075155088</v>
       </c>
       <c r="W16" t="n">
-        <v>1345.110360796992</v>
+        <v>1477.655410663963</v>
       </c>
       <c r="X16" t="n">
-        <v>1345.110360796992</v>
+        <v>1239.311548523646</v>
       </c>
       <c r="Y16" t="n">
-        <v>1120.805048080393</v>
+        <v>1014.575849912411</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>789.5853647754049</v>
+        <v>454.1566949558172</v>
       </c>
       <c r="C17" t="n">
-        <v>789.5853647754049</v>
+        <v>454.1566949558172</v>
       </c>
       <c r="D17" t="n">
-        <v>789.5853647754049</v>
+        <v>49.69276504887767</v>
       </c>
       <c r="E17" t="n">
-        <v>789.5853647754049</v>
+        <v>49.69276504887767</v>
       </c>
       <c r="F17" t="n">
-        <v>368.5549527290924</v>
+        <v>49.69276504887767</v>
       </c>
       <c r="G17" t="n">
-        <v>40.61221640431133</v>
+        <v>49.69276504887767</v>
       </c>
       <c r="H17" t="n">
-        <v>40.61221640431133</v>
+        <v>49.69276504887767</v>
       </c>
       <c r="I17" t="n">
         <v>40.61221640431133</v>
       </c>
       <c r="J17" t="n">
-        <v>134.750025907721</v>
+        <v>426.9335807895452</v>
       </c>
       <c r="K17" t="n">
-        <v>451.7160747758939</v>
+        <v>588.5708544150893</v>
       </c>
       <c r="L17" t="n">
-        <v>667.186619206286</v>
+        <v>804.0413988454814</v>
       </c>
       <c r="M17" t="n">
-        <v>919.7652387791479</v>
+        <v>1056.620018418343</v>
       </c>
       <c r="N17" t="n">
-        <v>1178.299436872943</v>
+        <v>1315.154216512138</v>
       </c>
       <c r="O17" t="n">
-        <v>1680.875614876295</v>
+        <v>1553.879947800154</v>
       </c>
       <c r="P17" t="n">
-        <v>1870.649598067748</v>
+        <v>1743.653930991607</v>
       </c>
       <c r="Q17" t="n">
-        <v>1993.651993741425</v>
+        <v>1866.656326665284</v>
       </c>
       <c r="R17" t="n">
         <v>2030.610820215566</v>
       </c>
       <c r="S17" t="n">
-        <v>1941.002990321881</v>
+        <v>2030.610820215566</v>
       </c>
       <c r="T17" t="n">
-        <v>1941.002990321881</v>
+        <v>2030.610820215566</v>
       </c>
       <c r="U17" t="n">
-        <v>1941.002990321881</v>
+        <v>1773.710673384565</v>
       </c>
       <c r="V17" t="n">
-        <v>1591.165435658362</v>
+        <v>1423.873118721046</v>
       </c>
       <c r="W17" t="n">
-        <v>1591.165435658362</v>
+        <v>1040.112817856215</v>
       </c>
       <c r="X17" t="n">
-        <v>1190.522037827315</v>
+        <v>1040.112817856215</v>
       </c>
       <c r="Y17" t="n">
-        <v>789.5853647754049</v>
+        <v>639.1761448043047</v>
       </c>
     </row>
     <row r="18">
@@ -5591,31 +5591,31 @@
         <v>40.61221640431133</v>
       </c>
       <c r="I18" t="n">
-        <v>40.61221640431133</v>
+        <v>56.46434519921166</v>
       </c>
       <c r="J18" t="n">
-        <v>89.05882281840272</v>
+        <v>348.5793555879363</v>
       </c>
       <c r="K18" t="n">
-        <v>203.5144936556173</v>
+        <v>463.0350264251509</v>
       </c>
       <c r="L18" t="n">
-        <v>376.1748969711667</v>
+        <v>635.6954297407003</v>
       </c>
       <c r="M18" t="n">
-        <v>585.5009753850816</v>
+        <v>845.0215081546153</v>
       </c>
       <c r="N18" t="n">
-        <v>806.2027934163044</v>
+        <v>1065.723326185838</v>
       </c>
       <c r="O18" t="n">
-        <v>1308.778971419657</v>
+        <v>1258.623355028945</v>
       </c>
       <c r="P18" t="n">
-        <v>1539.751682340159</v>
+        <v>1451.781965863177</v>
       </c>
       <c r="Q18" t="n">
-        <v>2023.763077800362</v>
+        <v>1935.793361323381</v>
       </c>
       <c r="R18" t="n">
         <v>2030.610820215566</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>934.521512140939</v>
+        <v>667.2627514121623</v>
       </c>
       <c r="C19" t="n">
-        <v>763.4281397026555</v>
+        <v>667.2627514121623</v>
       </c>
       <c r="D19" t="n">
-        <v>763.4281397026555</v>
+        <v>507.7681067350723</v>
       </c>
       <c r="E19" t="n">
-        <v>602.517324570975</v>
+        <v>346.8572916033918</v>
       </c>
       <c r="F19" t="n">
-        <v>437.8861986815663</v>
+        <v>182.2261657139831</v>
       </c>
       <c r="G19" t="n">
-        <v>271.5348726861853</v>
+        <v>182.2261657139831</v>
       </c>
       <c r="H19" t="n">
-        <v>129.9209233765136</v>
+        <v>40.61221640431133</v>
       </c>
       <c r="I19" t="n">
         <v>40.61221640431133</v>
       </c>
       <c r="J19" t="n">
-        <v>116.9937452684586</v>
+        <v>51.99238163712219</v>
       </c>
       <c r="K19" t="n">
-        <v>373.9224337320121</v>
+        <v>102.6408765149616</v>
       </c>
       <c r="L19" t="n">
-        <v>666.9369477826432</v>
+        <v>493.544471596546</v>
       </c>
       <c r="M19" t="n">
-        <v>1094.328984525367</v>
+        <v>920.9365083392697</v>
       </c>
       <c r="N19" t="n">
-        <v>1510.011372581477</v>
+        <v>1336.61889639538</v>
       </c>
       <c r="O19" t="n">
-        <v>1579.047118387957</v>
+        <v>1720.7294016206</v>
       </c>
       <c r="P19" t="n">
-        <v>1891.296510382675</v>
+        <v>2017.570470588513</v>
       </c>
       <c r="Q19" t="n">
         <v>2030.610820215566</v>
       </c>
       <c r="R19" t="n">
-        <v>1985.763337173762</v>
+        <v>2030.610820215566</v>
       </c>
       <c r="S19" t="n">
-        <v>1815.039821386289</v>
+        <v>1859.887304428093</v>
       </c>
       <c r="T19" t="n">
-        <v>1815.039821386289</v>
+        <v>1859.887304428093</v>
       </c>
       <c r="U19" t="n">
-        <v>1815.039821386289</v>
+        <v>1577.138196887621</v>
       </c>
       <c r="V19" t="n">
-        <v>1541.154076325811</v>
+        <v>1577.138196887621</v>
       </c>
       <c r="W19" t="n">
-        <v>1262.084411834685</v>
+        <v>1318.042018557759</v>
       </c>
       <c r="X19" t="n">
-        <v>1122.221218534983</v>
+        <v>1079.698156417442</v>
       </c>
       <c r="Y19" t="n">
-        <v>1122.221218534983</v>
+        <v>854.9624578062067</v>
       </c>
     </row>
     <row r="20">
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1282.706816672284</v>
+        <v>1086.909931589001</v>
       </c>
       <c r="C20" t="n">
-        <v>1282.706816672284</v>
+        <v>1086.909931589001</v>
       </c>
       <c r="D20" t="n">
-        <v>1282.706816672284</v>
+        <v>1086.909931589001</v>
       </c>
       <c r="E20" t="n">
-        <v>868.366601189181</v>
+        <v>877.4471498337473</v>
       </c>
       <c r="F20" t="n">
-        <v>447.3361891428685</v>
+        <v>456.4167377874349</v>
       </c>
       <c r="G20" t="n">
-        <v>40.61221640431133</v>
+        <v>49.69276504887767</v>
       </c>
       <c r="H20" t="n">
-        <v>40.61221640431133</v>
+        <v>49.69276504887767</v>
       </c>
       <c r="I20" t="n">
         <v>40.61221640431133</v>
@@ -5755,16 +5755,16 @@
         <v>134.750025907721</v>
       </c>
       <c r="K20" t="n">
-        <v>296.3872995332651</v>
+        <v>428.4608879182698</v>
       </c>
       <c r="L20" t="n">
-        <v>511.8578439636572</v>
+        <v>931.0370659216226</v>
       </c>
       <c r="M20" t="n">
-        <v>764.4364635365191</v>
+        <v>1183.615685494485</v>
       </c>
       <c r="N20" t="n">
-        <v>1267.012641539872</v>
+        <v>1442.149883588279</v>
       </c>
       <c r="O20" t="n">
         <v>1680.875614876296</v>
@@ -5779,25 +5779,25 @@
         <v>2030.610820215567</v>
       </c>
       <c r="S20" t="n">
-        <v>2030.610820215567</v>
+        <v>1941.002990321882</v>
       </c>
       <c r="T20" t="n">
-        <v>2030.610820215567</v>
+        <v>1727.570379284834</v>
       </c>
       <c r="U20" t="n">
-        <v>2030.610820215567</v>
+        <v>1470.670232453832</v>
       </c>
       <c r="V20" t="n">
-        <v>2030.610820215567</v>
+        <v>1470.670232453832</v>
       </c>
       <c r="W20" t="n">
-        <v>2030.610820215567</v>
+        <v>1086.909931589001</v>
       </c>
       <c r="X20" t="n">
-        <v>1692.927996336774</v>
+        <v>1086.909931589001</v>
       </c>
       <c r="Y20" t="n">
-        <v>1692.927996336774</v>
+        <v>1086.909931589001</v>
       </c>
     </row>
     <row r="21">
@@ -5828,31 +5828,31 @@
         <v>40.61221640431133</v>
       </c>
       <c r="I21" t="n">
-        <v>40.61221640431133</v>
+        <v>56.46434519921166</v>
       </c>
       <c r="J21" t="n">
-        <v>89.05882281840272</v>
+        <v>348.5793555879363</v>
       </c>
       <c r="K21" t="n">
-        <v>591.6350008217555</v>
+        <v>463.0350264251509</v>
       </c>
       <c r="L21" t="n">
-        <v>893.9301663985418</v>
+        <v>635.6954297407003</v>
       </c>
       <c r="M21" t="n">
-        <v>1103.256244812457</v>
+        <v>845.0215081546153</v>
       </c>
       <c r="N21" t="n">
-        <v>1605.83242281581</v>
+        <v>1065.723326185838</v>
       </c>
       <c r="O21" t="n">
-        <v>1798.732451658917</v>
+        <v>1258.623355028945</v>
       </c>
       <c r="P21" t="n">
-        <v>1945.721839343933</v>
+        <v>1451.781965863177</v>
       </c>
       <c r="Q21" t="n">
-        <v>2023.763077800362</v>
+        <v>1935.793361323381</v>
       </c>
       <c r="R21" t="n">
         <v>2030.610820215566</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1094.016156818029</v>
+        <v>371.2002335196848</v>
       </c>
       <c r="C22" t="n">
-        <v>922.9227843797455</v>
+        <v>200.1068610814013</v>
       </c>
       <c r="D22" t="n">
-        <v>763.4281397026555</v>
+        <v>40.61221640431133</v>
       </c>
       <c r="E22" t="n">
-        <v>602.517324570975</v>
+        <v>40.61221640431133</v>
       </c>
       <c r="F22" t="n">
-        <v>437.8861986815663</v>
+        <v>40.61221640431133</v>
       </c>
       <c r="G22" t="n">
-        <v>271.5348726861853</v>
+        <v>40.61221640431133</v>
       </c>
       <c r="H22" t="n">
-        <v>129.9209233765136</v>
+        <v>40.61221640431133</v>
       </c>
       <c r="I22" t="n">
         <v>40.61221640431133</v>
@@ -5913,22 +5913,22 @@
         <v>51.99238163712219</v>
       </c>
       <c r="K22" t="n">
-        <v>308.9210701006758</v>
+        <v>102.6408765149616</v>
       </c>
       <c r="L22" t="n">
-        <v>385.8455539472372</v>
+        <v>493.544471596546</v>
       </c>
       <c r="M22" t="n">
-        <v>813.2375906899608</v>
+        <v>920.9365083392697</v>
       </c>
       <c r="N22" t="n">
-        <v>1228.919978746071</v>
+        <v>1336.61889639538</v>
       </c>
       <c r="O22" t="n">
-        <v>1613.030483971291</v>
+        <v>1720.7294016206</v>
       </c>
       <c r="P22" t="n">
-        <v>1925.27987596601</v>
+        <v>2017.570470588513</v>
       </c>
       <c r="Q22" t="n">
         <v>2030.610820215567</v>
@@ -5937,25 +5937,25 @@
         <v>1985.763337173763</v>
       </c>
       <c r="S22" t="n">
-        <v>1985.763337173763</v>
+        <v>1819.505551836854</v>
       </c>
       <c r="T22" t="n">
-        <v>1985.763337173763</v>
+        <v>1583.798272696878</v>
       </c>
       <c r="U22" t="n">
-        <v>1799.129389843516</v>
+        <v>1301.049165156407</v>
       </c>
       <c r="V22" t="n">
-        <v>1799.129389843516</v>
+        <v>1301.049165156407</v>
       </c>
       <c r="W22" t="n">
-        <v>1520.05972535239</v>
+        <v>1021.979500665281</v>
       </c>
       <c r="X22" t="n">
-        <v>1281.715863212073</v>
+        <v>783.6356385249645</v>
       </c>
       <c r="Y22" t="n">
-        <v>1281.715863212073</v>
+        <v>558.8999399137292</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1053.229511358988</v>
+        <v>1183.873069625357</v>
       </c>
       <c r="C23" t="n">
-        <v>643.1049206722586</v>
+        <v>1183.873069625357</v>
       </c>
       <c r="D23" t="n">
-        <v>643.1049206722586</v>
+        <v>1183.873069625357</v>
       </c>
       <c r="E23" t="n">
-        <v>228.7647051891553</v>
+        <v>769.5328541422539</v>
       </c>
       <c r="F23" t="n">
-        <v>228.7647051891553</v>
+        <v>348.5024420959415</v>
       </c>
       <c r="G23" t="n">
-        <v>58.12059852744285</v>
+        <v>348.5024420959415</v>
       </c>
       <c r="H23" t="n">
         <v>58.12059852744285</v>
@@ -5989,22 +5989,22 @@
         <v>49.04004988287651</v>
       </c>
       <c r="J23" t="n">
-        <v>143.1778593862861</v>
+        <v>469.9536862740154</v>
       </c>
       <c r="K23" t="n">
-        <v>304.8151330118303</v>
+        <v>631.5909598995595</v>
       </c>
       <c r="L23" t="n">
-        <v>911.6857503124271</v>
+        <v>1238.461577200156</v>
       </c>
       <c r="M23" t="n">
-        <v>1518.556367613024</v>
+        <v>1491.040196773018</v>
       </c>
       <c r="N23" t="n">
-        <v>1777.090565706819</v>
+        <v>1863.541557516538</v>
       </c>
       <c r="O23" t="n">
-        <v>2015.816296994835</v>
+        <v>2102.267288804554</v>
       </c>
       <c r="P23" t="n">
         <v>2292.041271996006</v>
@@ -6016,25 +6016,25 @@
         <v>2452.002494143826</v>
       </c>
       <c r="S23" t="n">
-        <v>2452.002494143826</v>
+        <v>2362.394664250141</v>
       </c>
       <c r="T23" t="n">
-        <v>2238.569883106777</v>
+        <v>2174.371071984709</v>
       </c>
       <c r="U23" t="n">
-        <v>2238.569883106777</v>
+        <v>1917.470925153708</v>
       </c>
       <c r="V23" t="n">
-        <v>2238.569883106777</v>
+        <v>1567.633370490189</v>
       </c>
       <c r="W23" t="n">
-        <v>1854.809582241946</v>
+        <v>1183.873069625357</v>
       </c>
       <c r="X23" t="n">
-        <v>1454.166184410898</v>
+        <v>1183.873069625357</v>
       </c>
       <c r="Y23" t="n">
-        <v>1053.229511358988</v>
+        <v>1183.873069625357</v>
       </c>
     </row>
     <row r="24">
@@ -6065,31 +6065,31 @@
         <v>49.04004988287651</v>
       </c>
       <c r="I24" t="n">
-        <v>49.04004988287651</v>
+        <v>64.89217867777684</v>
       </c>
       <c r="J24" t="n">
-        <v>97.48665629696788</v>
+        <v>357.0071890665015</v>
       </c>
       <c r="K24" t="n">
-        <v>704.3572735975647</v>
+        <v>517.6320830529329</v>
       </c>
       <c r="L24" t="n">
-        <v>1184.232359849237</v>
+        <v>690.2924863684823</v>
       </c>
       <c r="M24" t="n">
-        <v>1393.558438263152</v>
+        <v>899.6185647823971</v>
       </c>
       <c r="N24" t="n">
-        <v>1614.260256294375</v>
+        <v>1120.32038281362</v>
       </c>
       <c r="O24" t="n">
-        <v>1807.160285137482</v>
+        <v>1313.220411656727</v>
       </c>
       <c r="P24" t="n">
-        <v>1954.149672822498</v>
+        <v>1460.209799341743</v>
       </c>
       <c r="Q24" t="n">
-        <v>2032.190911278928</v>
+        <v>1944.221194801946</v>
       </c>
       <c r="R24" t="n">
         <v>2039.038653694132</v>
@@ -6171,19 +6171,19 @@
         <v>2452.002494143826</v>
       </c>
       <c r="R25" t="n">
-        <v>2407.155011102021</v>
+        <v>2452.002494143826</v>
       </c>
       <c r="S25" t="n">
-        <v>2407.155011102021</v>
+        <v>2452.002494143826</v>
       </c>
       <c r="T25" t="n">
-        <v>2171.447731962046</v>
+        <v>2216.29521500385</v>
       </c>
       <c r="U25" t="n">
-        <v>1888.698624421575</v>
+        <v>2216.29521500385</v>
       </c>
       <c r="V25" t="n">
-        <v>1753.223257442191</v>
+        <v>1942.409469943372</v>
       </c>
       <c r="W25" t="n">
         <v>1753.223257442191</v>
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1277.968785959649</v>
+        <v>1034.106939932906</v>
       </c>
       <c r="C26" t="n">
-        <v>867.8441952729193</v>
+        <v>1034.106939932906</v>
       </c>
       <c r="D26" t="n">
-        <v>463.3802653659798</v>
+        <v>1034.106939932906</v>
       </c>
       <c r="E26" t="n">
-        <v>49.04004988287651</v>
+        <v>619.7667244498023</v>
       </c>
       <c r="F26" t="n">
-        <v>49.04004988287651</v>
+        <v>198.7363124034898</v>
       </c>
       <c r="G26" t="n">
         <v>49.04004988287651</v>
@@ -6244,34 +6244,34 @@
         <v>1596.900053284625</v>
       </c>
       <c r="P26" t="n">
-        <v>2203.770670585222</v>
+        <v>1786.674036476077</v>
       </c>
       <c r="Q26" t="n">
-        <v>2326.7730662589</v>
+        <v>2288.048000593543</v>
       </c>
       <c r="R26" t="n">
         <v>2452.002494143826</v>
       </c>
       <c r="S26" t="n">
-        <v>2362.394664250141</v>
+        <v>2452.002494143826</v>
       </c>
       <c r="T26" t="n">
-        <v>2148.962053213092</v>
+        <v>2452.002494143826</v>
       </c>
       <c r="U26" t="n">
-        <v>2148.962053213092</v>
+        <v>2195.102347312824</v>
       </c>
       <c r="V26" t="n">
-        <v>2148.962053213092</v>
+        <v>1845.264792649305</v>
       </c>
       <c r="W26" t="n">
-        <v>1765.201752348261</v>
+        <v>1845.264792649305</v>
       </c>
       <c r="X26" t="n">
-        <v>1364.558354517213</v>
+        <v>1845.264792649305</v>
       </c>
       <c r="Y26" t="n">
-        <v>1277.968785959649</v>
+        <v>1444.328119597395</v>
       </c>
     </row>
     <row r="27">
@@ -6302,28 +6302,28 @@
         <v>49.04004988287651</v>
       </c>
       <c r="I27" t="n">
-        <v>49.04004988287651</v>
+        <v>64.89217867777684</v>
       </c>
       <c r="J27" t="n">
-        <v>341.1550602716012</v>
+        <v>113.3387850918682</v>
       </c>
       <c r="K27" t="n">
-        <v>948.025677572198</v>
+        <v>227.7944559290828</v>
       </c>
       <c r="L27" t="n">
-        <v>1120.686080887747</v>
+        <v>400.4548592446322</v>
       </c>
       <c r="M27" t="n">
-        <v>1330.012159301662</v>
+        <v>609.7809376585471</v>
       </c>
       <c r="N27" t="n">
-        <v>1550.713977332885</v>
+        <v>830.48275568977</v>
       </c>
       <c r="O27" t="n">
-        <v>1743.614006175992</v>
+        <v>1347.279055521901</v>
       </c>
       <c r="P27" t="n">
-        <v>1890.603393861008</v>
+        <v>1954.149672822498</v>
       </c>
       <c r="Q27" t="n">
         <v>2032.190911278928</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>941.5331751649137</v>
+        <v>559.0879149787053</v>
       </c>
       <c r="C28" t="n">
-        <v>770.4398027266302</v>
+        <v>387.9945425404218</v>
       </c>
       <c r="D28" t="n">
-        <v>610.9451580495402</v>
+        <v>387.9945425404218</v>
       </c>
       <c r="E28" t="n">
-        <v>610.9451580495402</v>
+        <v>227.0837274087413</v>
       </c>
       <c r="F28" t="n">
-        <v>446.3140321601315</v>
+        <v>62.45260151933252</v>
       </c>
       <c r="G28" t="n">
-        <v>279.9627061647504</v>
+        <v>62.45260151933252</v>
       </c>
       <c r="H28" t="n">
-        <v>138.3487568550787</v>
+        <v>49.04004988287651</v>
       </c>
       <c r="I28" t="n">
         <v>49.04004988287651</v>
@@ -6408,28 +6408,28 @@
         <v>2452.002494143826</v>
       </c>
       <c r="R28" t="n">
-        <v>2428.016959402586</v>
+        <v>2452.002494143826</v>
       </c>
       <c r="S28" t="n">
-        <v>2428.016959402586</v>
+        <v>2281.278978356352</v>
       </c>
       <c r="T28" t="n">
-        <v>2428.016959402586</v>
+        <v>2045.571699216377</v>
       </c>
       <c r="U28" t="n">
-        <v>2145.267851862114</v>
+        <v>1762.822591675905</v>
       </c>
       <c r="V28" t="n">
-        <v>1871.382106801636</v>
+        <v>1488.936846615427</v>
       </c>
       <c r="W28" t="n">
-        <v>1592.31244231051</v>
+        <v>1209.867182124302</v>
       </c>
       <c r="X28" t="n">
-        <v>1353.968580170193</v>
+        <v>971.5233199839849</v>
       </c>
       <c r="Y28" t="n">
-        <v>1129.232881558958</v>
+        <v>746.7876213727496</v>
       </c>
     </row>
     <row r="29">
@@ -6439,46 +6439,46 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1981.669736275776</v>
+        <v>916.8245677325175</v>
       </c>
       <c r="C29" t="n">
-        <v>1981.669736275776</v>
+        <v>916.8245677325175</v>
       </c>
       <c r="D29" t="n">
-        <v>1577.205806368836</v>
+        <v>885.8749833123125</v>
       </c>
       <c r="E29" t="n">
-        <v>1162.865590885733</v>
+        <v>885.8749833123125</v>
       </c>
       <c r="F29" t="n">
-        <v>741.8351788394207</v>
+        <v>464.8445712660001</v>
       </c>
       <c r="G29" t="n">
-        <v>335.1112061008635</v>
+        <v>58.12059852744285</v>
       </c>
       <c r="H29" t="n">
-        <v>49.04004988287651</v>
+        <v>58.12059852744285</v>
       </c>
       <c r="I29" t="n">
         <v>49.04004988287651</v>
       </c>
       <c r="J29" t="n">
-        <v>143.1778593862861</v>
+        <v>469.9536862740154</v>
       </c>
       <c r="K29" t="n">
-        <v>304.8151330118303</v>
+        <v>1076.824303574612</v>
       </c>
       <c r="L29" t="n">
-        <v>520.2856774422223</v>
+        <v>1292.294848005004</v>
       </c>
       <c r="M29" t="n">
-        <v>839.5743061067966</v>
+        <v>1544.873467577866</v>
       </c>
       <c r="N29" t="n">
-        <v>1446.444923407393</v>
+        <v>1863.541557516538</v>
       </c>
       <c r="O29" t="n">
-        <v>1685.17065469541</v>
+        <v>2102.267288804554</v>
       </c>
       <c r="P29" t="n">
         <v>2292.041271996006</v>
@@ -6493,22 +6493,22 @@
         <v>2452.002494143826</v>
       </c>
       <c r="T29" t="n">
-        <v>2238.569883106777</v>
+        <v>2452.002494143826</v>
       </c>
       <c r="U29" t="n">
-        <v>1981.669736275776</v>
+        <v>2452.002494143826</v>
       </c>
       <c r="V29" t="n">
-        <v>1981.669736275776</v>
+        <v>2102.164939480306</v>
       </c>
       <c r="W29" t="n">
-        <v>1981.669736275776</v>
+        <v>1718.404638615475</v>
       </c>
       <c r="X29" t="n">
-        <v>1981.669736275776</v>
+        <v>1317.761240784427</v>
       </c>
       <c r="Y29" t="n">
-        <v>1981.669736275776</v>
+        <v>916.8245677325175</v>
       </c>
     </row>
     <row r="30">
@@ -6542,28 +6542,28 @@
         <v>49.04004988287651</v>
       </c>
       <c r="J30" t="n">
-        <v>97.48665629696788</v>
+        <v>341.1550602716012</v>
       </c>
       <c r="K30" t="n">
-        <v>704.3572735975647</v>
+        <v>537.4334407873326</v>
       </c>
       <c r="L30" t="n">
-        <v>877.0176769131141</v>
+        <v>710.093844102882</v>
       </c>
       <c r="M30" t="n">
-        <v>1086.343755327029</v>
+        <v>919.4199225167969</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.045573358252</v>
+        <v>1526.290539817394</v>
       </c>
       <c r="O30" t="n">
-        <v>1499.945602201359</v>
+        <v>1719.190568660501</v>
       </c>
       <c r="P30" t="n">
-        <v>1646.934989886375</v>
+        <v>1866.179956345517</v>
       </c>
       <c r="Q30" t="n">
-        <v>2032.190911278928</v>
+        <v>1944.221194801946</v>
       </c>
       <c r="R30" t="n">
         <v>2039.038653694132</v>
@@ -6597,31 +6597,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1080.180884659494</v>
+        <v>771.8559731812206</v>
       </c>
       <c r="C31" t="n">
-        <v>909.0875122212101</v>
+        <v>771.8559731812206</v>
       </c>
       <c r="D31" t="n">
-        <v>749.5928675441201</v>
+        <v>771.8559731812206</v>
       </c>
       <c r="E31" t="n">
-        <v>588.6820524124396</v>
+        <v>610.9451580495402</v>
       </c>
       <c r="F31" t="n">
-        <v>424.0509265230309</v>
+        <v>446.3140321601315</v>
       </c>
       <c r="G31" t="n">
-        <v>257.6996005276498</v>
+        <v>279.9627061647504</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0856512179781</v>
+        <v>138.3487568550787</v>
       </c>
       <c r="I31" t="n">
         <v>49.04004988287651</v>
       </c>
       <c r="J31" t="n">
-        <v>125.4215787470237</v>
+        <v>125.4215787470238</v>
       </c>
       <c r="K31" t="n">
         <v>382.3502672105773</v>
@@ -6645,28 +6645,28 @@
         <v>2452.002494143826</v>
       </c>
       <c r="R31" t="n">
-        <v>2452.002494143826</v>
+        <v>2440.034853735106</v>
       </c>
       <c r="S31" t="n">
-        <v>2281.278978356352</v>
+        <v>2269.311337947632</v>
       </c>
       <c r="T31" t="n">
-        <v>2045.571699216377</v>
+        <v>2033.604058807657</v>
       </c>
       <c r="U31" t="n">
-        <v>2045.571699216377</v>
+        <v>1750.854951267185</v>
       </c>
       <c r="V31" t="n">
-        <v>1771.685954155899</v>
+        <v>1476.969206206707</v>
       </c>
       <c r="W31" t="n">
-        <v>1492.616289664773</v>
+        <v>1197.899541715582</v>
       </c>
       <c r="X31" t="n">
-        <v>1492.616289664773</v>
+        <v>959.555679575265</v>
       </c>
       <c r="Y31" t="n">
-        <v>1267.880591053538</v>
+        <v>959.555679575265</v>
       </c>
     </row>
     <row r="32">
@@ -6676,43 +6676,43 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1176.256826880811</v>
+        <v>650.6399142889368</v>
       </c>
       <c r="C32" t="n">
-        <v>1176.256826880811</v>
+        <v>650.6399142889368</v>
       </c>
       <c r="D32" t="n">
-        <v>1176.256826880811</v>
+        <v>463.3802653659798</v>
       </c>
       <c r="E32" t="n">
-        <v>1176.256826880811</v>
+        <v>49.04004988287651</v>
       </c>
       <c r="F32" t="n">
-        <v>755.2264148344987</v>
+        <v>49.04004988287651</v>
       </c>
       <c r="G32" t="n">
-        <v>348.5024420959415</v>
+        <v>49.04004988287651</v>
       </c>
       <c r="H32" t="n">
-        <v>58.12059852744285</v>
+        <v>49.04004988287651</v>
       </c>
       <c r="I32" t="n">
         <v>49.04004988287651</v>
       </c>
       <c r="J32" t="n">
-        <v>143.1778593862861</v>
+        <v>469.9536862740154</v>
       </c>
       <c r="K32" t="n">
-        <v>304.8151330118303</v>
+        <v>745.5581225492841</v>
       </c>
       <c r="L32" t="n">
-        <v>520.2856774422223</v>
+        <v>1352.428739849881</v>
       </c>
       <c r="M32" t="n">
-        <v>888.5260542033606</v>
+        <v>1605.007359422743</v>
       </c>
       <c r="N32" t="n">
-        <v>1495.396671503957</v>
+        <v>1863.541557516538</v>
       </c>
       <c r="O32" t="n">
         <v>2102.267288804554</v>
@@ -6730,22 +6730,22 @@
         <v>2452.002494143826</v>
       </c>
       <c r="T32" t="n">
-        <v>2238.569883106777</v>
+        <v>2452.002494143826</v>
       </c>
       <c r="U32" t="n">
-        <v>1981.669736275776</v>
+        <v>2195.102347312824</v>
       </c>
       <c r="V32" t="n">
-        <v>1981.669736275776</v>
+        <v>1845.264792649305</v>
       </c>
       <c r="W32" t="n">
-        <v>1981.669736275776</v>
+        <v>1461.504491784474</v>
       </c>
       <c r="X32" t="n">
-        <v>1581.026338444728</v>
+        <v>1060.861093953426</v>
       </c>
       <c r="Y32" t="n">
-        <v>1180.089665392818</v>
+        <v>1060.861093953426</v>
       </c>
     </row>
     <row r="33">
@@ -6788,16 +6788,16 @@
         <v>384.6027304497319</v>
       </c>
       <c r="M33" t="n">
-        <v>979.5878498056624</v>
+        <v>593.9288088636467</v>
       </c>
       <c r="N33" t="n">
-        <v>1200.289667836885</v>
+        <v>814.6306268948696</v>
       </c>
       <c r="O33" t="n">
-        <v>1807.160285137482</v>
+        <v>1007.530655737977</v>
       </c>
       <c r="P33" t="n">
-        <v>1954.149672822498</v>
+        <v>1548.179515818724</v>
       </c>
       <c r="Q33" t="n">
         <v>2032.190911278928</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1003.697175826657</v>
+        <v>794.7951941186808</v>
       </c>
       <c r="C34" t="n">
-        <v>832.6038033883733</v>
+        <v>623.7018216803973</v>
       </c>
       <c r="D34" t="n">
-        <v>673.1091587112833</v>
+        <v>464.2071770033073</v>
       </c>
       <c r="E34" t="n">
-        <v>512.1983435796028</v>
+        <v>303.2963618716268</v>
       </c>
       <c r="F34" t="n">
-        <v>347.5672176901941</v>
+        <v>138.6652359822181</v>
       </c>
       <c r="G34" t="n">
-        <v>181.215891694813</v>
+        <v>138.6652359822181</v>
       </c>
       <c r="H34" t="n">
         <v>49.04004988287651</v>
@@ -6858,7 +6858,7 @@
         <v>49.04004988287651</v>
       </c>
       <c r="J34" t="n">
-        <v>125.4215787470238</v>
+        <v>125.4215787470237</v>
       </c>
       <c r="K34" t="n">
         <v>382.3502672105773</v>
@@ -6885,25 +6885,25 @@
         <v>2452.002494143826</v>
       </c>
       <c r="S34" t="n">
-        <v>2452.002494143826</v>
+        <v>2281.278978356353</v>
       </c>
       <c r="T34" t="n">
-        <v>2216.29521500385</v>
+        <v>2281.278978356353</v>
       </c>
       <c r="U34" t="n">
-        <v>1933.546107463379</v>
+        <v>1998.529870815881</v>
       </c>
       <c r="V34" t="n">
-        <v>1933.546107463379</v>
+        <v>1724.644125755403</v>
       </c>
       <c r="W34" t="n">
-        <v>1654.476442972253</v>
+        <v>1445.574461264277</v>
       </c>
       <c r="X34" t="n">
-        <v>1416.132580831936</v>
+        <v>1207.23059912396</v>
       </c>
       <c r="Y34" t="n">
-        <v>1191.396882220701</v>
+        <v>982.4949005127252</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>851.800119049808</v>
+        <v>758.69799146456</v>
       </c>
       <c r="C35" t="n">
-        <v>851.800119049808</v>
+        <v>445.0761463112508</v>
       </c>
       <c r="D35" t="n">
-        <v>447.3361891428685</v>
+        <v>40.61221640431133</v>
       </c>
       <c r="E35" t="n">
-        <v>447.3361891428685</v>
+        <v>40.61221640431133</v>
       </c>
       <c r="F35" t="n">
-        <v>447.3361891428685</v>
+        <v>40.61221640431133</v>
       </c>
       <c r="G35" t="n">
         <v>40.61221640431133</v>
@@ -6937,22 +6937,22 @@
         <v>40.61221640431133</v>
       </c>
       <c r="J35" t="n">
-        <v>134.750025907721</v>
+        <v>426.9335807895452</v>
       </c>
       <c r="K35" t="n">
-        <v>296.3872995332651</v>
+        <v>588.5708544150893</v>
       </c>
       <c r="L35" t="n">
-        <v>511.8578439636572</v>
+        <v>804.0413988454814</v>
       </c>
       <c r="M35" t="n">
-        <v>764.4364635365191</v>
+        <v>1056.620018418343</v>
       </c>
       <c r="N35" t="n">
-        <v>1022.970661630314</v>
+        <v>1315.154216512138</v>
       </c>
       <c r="O35" t="n">
-        <v>1261.69639291833</v>
+        <v>1553.879947800154</v>
       </c>
       <c r="P35" t="n">
         <v>1743.653930991607</v>
@@ -6967,22 +6967,22 @@
         <v>2030.610820215566</v>
       </c>
       <c r="T35" t="n">
-        <v>2030.610820215566</v>
+        <v>1817.178209178518</v>
       </c>
       <c r="U35" t="n">
-        <v>1986.041372409206</v>
+        <v>1560.278062347517</v>
       </c>
       <c r="V35" t="n">
-        <v>1636.203817745687</v>
+        <v>1560.278062347517</v>
       </c>
       <c r="W35" t="n">
-        <v>1252.443516880855</v>
+        <v>1560.278062347517</v>
       </c>
       <c r="X35" t="n">
-        <v>851.800119049808</v>
+        <v>1159.63466451647</v>
       </c>
       <c r="Y35" t="n">
-        <v>851.800119049808</v>
+        <v>758.69799146456</v>
       </c>
     </row>
     <row r="36">
@@ -7013,31 +7013,31 @@
         <v>40.61221640431133</v>
       </c>
       <c r="I36" t="n">
-        <v>40.61221640431133</v>
+        <v>56.46434519921166</v>
       </c>
       <c r="J36" t="n">
-        <v>332.727226793036</v>
+        <v>348.5793555879363</v>
       </c>
       <c r="K36" t="n">
-        <v>447.1828976302506</v>
+        <v>463.0350264251509</v>
       </c>
       <c r="L36" t="n">
-        <v>619.8433009457999</v>
+        <v>635.6954297407003</v>
       </c>
       <c r="M36" t="n">
-        <v>829.1693793597149</v>
+        <v>845.0215081546153</v>
       </c>
       <c r="N36" t="n">
-        <v>1296.156273655564</v>
+        <v>1347.597686157968</v>
       </c>
       <c r="O36" t="n">
-        <v>1798.732451658917</v>
+        <v>1540.497715001075</v>
       </c>
       <c r="P36" t="n">
-        <v>1945.721839343933</v>
+        <v>1687.487102686091</v>
       </c>
       <c r="Q36" t="n">
-        <v>2023.763077800362</v>
+        <v>1935.793361323381</v>
       </c>
       <c r="R36" t="n">
         <v>2030.610820215566</v>
@@ -7071,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>378.0569148379759</v>
+        <v>863.0935005361553</v>
       </c>
       <c r="C37" t="n">
-        <v>206.9635423996924</v>
+        <v>692.0001280978718</v>
       </c>
       <c r="D37" t="n">
-        <v>206.9635423996924</v>
+        <v>532.5054834207817</v>
       </c>
       <c r="E37" t="n">
-        <v>206.9635423996924</v>
+        <v>371.5946682891012</v>
       </c>
       <c r="F37" t="n">
         <v>206.9635423996924</v>
@@ -7095,19 +7095,19 @@
         <v>40.61221640431133</v>
       </c>
       <c r="J37" t="n">
-        <v>51.99238163712219</v>
+        <v>116.9937452684586</v>
       </c>
       <c r="K37" t="n">
-        <v>305.9249427966037</v>
+        <v>373.9224337320121</v>
       </c>
       <c r="L37" t="n">
-        <v>696.8285378781882</v>
+        <v>764.8260288135966</v>
       </c>
       <c r="M37" t="n">
-        <v>779.2542251066263</v>
+        <v>847.2517160420348</v>
       </c>
       <c r="N37" t="n">
-        <v>1194.936613162736</v>
+        <v>1262.934104098145</v>
       </c>
       <c r="O37" t="n">
         <v>1579.047118387957</v>
@@ -7119,28 +7119,28 @@
         <v>2030.610820215566</v>
       </c>
       <c r="R37" t="n">
-        <v>1985.763337173762</v>
+        <v>2030.610820215566</v>
       </c>
       <c r="S37" t="n">
-        <v>1815.039821386289</v>
+        <v>2030.610820215566</v>
       </c>
       <c r="T37" t="n">
-        <v>1815.039821386289</v>
+        <v>1794.903541075591</v>
       </c>
       <c r="U37" t="n">
-        <v>1581.791591535176</v>
+        <v>1787.75851274223</v>
       </c>
       <c r="V37" t="n">
-        <v>1307.905846474698</v>
+        <v>1513.872767681752</v>
       </c>
       <c r="W37" t="n">
-        <v>1028.836181983572</v>
+        <v>1513.872767681752</v>
       </c>
       <c r="X37" t="n">
-        <v>790.4923198432556</v>
+        <v>1275.528905541435</v>
       </c>
       <c r="Y37" t="n">
-        <v>565.7566212320203</v>
+        <v>1050.7932069302</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>593.3291259254352</v>
+        <v>925.990308401876</v>
       </c>
       <c r="C38" t="n">
-        <v>593.3291259254352</v>
+        <v>925.990308401876</v>
       </c>
       <c r="D38" t="n">
-        <v>593.3291259254352</v>
+        <v>925.990308401876</v>
       </c>
       <c r="E38" t="n">
-        <v>593.3291259254352</v>
+        <v>925.990308401876</v>
       </c>
       <c r="F38" t="n">
-        <v>447.3361891428685</v>
+        <v>504.9598963555635</v>
       </c>
       <c r="G38" t="n">
-        <v>40.61221640431133</v>
+        <v>340.0746086173763</v>
       </c>
       <c r="H38" t="n">
-        <v>40.61221640431133</v>
+        <v>49.69276504887767</v>
       </c>
       <c r="I38" t="n">
         <v>40.61221640431133</v>
@@ -7177,22 +7177,22 @@
         <v>134.750025907721</v>
       </c>
       <c r="K38" t="n">
-        <v>637.3262039110737</v>
+        <v>296.3872995332651</v>
       </c>
       <c r="L38" t="n">
-        <v>852.7967483414657</v>
+        <v>551.4632835919476</v>
       </c>
       <c r="M38" t="n">
-        <v>1105.375367914328</v>
+        <v>804.0419031648096</v>
       </c>
       <c r="N38" t="n">
-        <v>1363.909566008123</v>
+        <v>1062.576101258604</v>
       </c>
       <c r="O38" t="n">
-        <v>1680.875614876295</v>
+        <v>1301.301832546621</v>
       </c>
       <c r="P38" t="n">
-        <v>1870.649598067748</v>
+        <v>1491.075815738073</v>
       </c>
       <c r="Q38" t="n">
         <v>1993.651993741425</v>
@@ -7210,16 +7210,16 @@
         <v>1727.570379284833</v>
       </c>
       <c r="V38" t="n">
-        <v>1377.732824621314</v>
+        <v>1727.570379284833</v>
       </c>
       <c r="W38" t="n">
-        <v>993.9725237564826</v>
+        <v>1727.570379284833</v>
       </c>
       <c r="X38" t="n">
-        <v>593.3291259254352</v>
+        <v>1326.926981453786</v>
       </c>
       <c r="Y38" t="n">
-        <v>593.3291259254352</v>
+        <v>925.990308401876</v>
       </c>
     </row>
     <row r="39">
@@ -7229,22 +7229,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>687.2649286030786</v>
+        <v>687.2649286030785</v>
       </c>
       <c r="C39" t="n">
-        <v>553.2698573520244</v>
+        <v>553.2698573520241</v>
       </c>
       <c r="D39" t="n">
-        <v>436.3726995714167</v>
+        <v>436.3726995714165</v>
       </c>
       <c r="E39" t="n">
-        <v>315.8798835637447</v>
+        <v>315.8798835637446</v>
       </c>
       <c r="F39" t="n">
         <v>206.9200037462492</v>
       </c>
       <c r="G39" t="n">
-        <v>101.0022921857837</v>
+        <v>101.0022921857836</v>
       </c>
       <c r="H39" t="n">
         <v>40.61221640431133</v>
@@ -7253,28 +7253,28 @@
         <v>56.46434519921166</v>
       </c>
       <c r="J39" t="n">
-        <v>104.910951613303</v>
+        <v>348.5793555879363</v>
       </c>
       <c r="K39" t="n">
-        <v>219.3666224505176</v>
+        <v>463.0350264251509</v>
       </c>
       <c r="L39" t="n">
-        <v>392.027025766067</v>
+        <v>635.6954297407003</v>
       </c>
       <c r="M39" t="n">
-        <v>601.353104179982</v>
+        <v>845.0215081546153</v>
       </c>
       <c r="N39" t="n">
-        <v>890.1861166517904</v>
+        <v>1065.723326185838</v>
       </c>
       <c r="O39" t="n">
-        <v>1392.762294655143</v>
+        <v>1258.623355028945</v>
       </c>
       <c r="P39" t="n">
-        <v>1539.751682340159</v>
+        <v>1451.781965863177</v>
       </c>
       <c r="Q39" t="n">
-        <v>2023.763077800363</v>
+        <v>1935.793361323381</v>
       </c>
       <c r="R39" t="n">
         <v>2030.610820215566</v>
@@ -7289,16 +7289,16 @@
         <v>1590.24059800658</v>
       </c>
       <c r="V39" t="n">
-        <v>1376.529070999614</v>
+        <v>1376.529070999613</v>
       </c>
       <c r="W39" t="n">
         <v>1163.295902735942</v>
       </c>
       <c r="X39" t="n">
-        <v>986.9699208748352</v>
+        <v>986.9699208748351</v>
       </c>
       <c r="Y39" t="n">
-        <v>827.5679612386652</v>
+        <v>827.5679612386651</v>
       </c>
     </row>
     <row r="40">
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>211.7055888425948</v>
+        <v>308.4197568379196</v>
       </c>
       <c r="C40" t="n">
-        <v>40.61221640431133</v>
+        <v>137.3263843996361</v>
       </c>
       <c r="D40" t="n">
-        <v>40.61221640431133</v>
+        <v>137.3263843996361</v>
       </c>
       <c r="E40" t="n">
-        <v>40.61221640431133</v>
+        <v>137.3263843996361</v>
       </c>
       <c r="F40" t="n">
-        <v>40.61221640431133</v>
+        <v>137.3263843996361</v>
       </c>
       <c r="G40" t="n">
-        <v>40.61221640431133</v>
+        <v>137.3263843996361</v>
       </c>
       <c r="H40" t="n">
         <v>40.61221640431133</v>
@@ -7332,19 +7332,19 @@
         <v>40.61221640431133</v>
       </c>
       <c r="J40" t="n">
-        <v>51.99238163712219</v>
+        <v>116.9937452684586</v>
       </c>
       <c r="K40" t="n">
-        <v>305.9249427966037</v>
+        <v>373.9224337320121</v>
       </c>
       <c r="L40" t="n">
-        <v>696.8285378781882</v>
+        <v>666.9369477826432</v>
       </c>
       <c r="M40" t="n">
-        <v>779.2542251066263</v>
+        <v>1094.328984525367</v>
       </c>
       <c r="N40" t="n">
-        <v>1194.936613162736</v>
+        <v>1510.011372581477</v>
       </c>
       <c r="O40" t="n">
         <v>1579.047118387957</v>
@@ -7359,25 +7359,25 @@
         <v>2030.610820215566</v>
       </c>
       <c r="S40" t="n">
-        <v>1859.887304428093</v>
+        <v>2030.610820215566</v>
       </c>
       <c r="T40" t="n">
-        <v>1698.189373080267</v>
+        <v>1794.903541075591</v>
       </c>
       <c r="U40" t="n">
-        <v>1415.440265539795</v>
+        <v>1512.15443353512</v>
       </c>
       <c r="V40" t="n">
-        <v>1141.554520479317</v>
+        <v>1238.268688474642</v>
       </c>
       <c r="W40" t="n">
-        <v>862.4848559881912</v>
+        <v>959.1990239835159</v>
       </c>
       <c r="X40" t="n">
-        <v>624.1409938478746</v>
+        <v>720.8551618431993</v>
       </c>
       <c r="Y40" t="n">
-        <v>399.4052952366392</v>
+        <v>496.119463231964</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1246.207121519688</v>
+        <v>865.0770225741445</v>
       </c>
       <c r="C41" t="n">
-        <v>1246.207121519688</v>
+        <v>454.9524318874146</v>
       </c>
       <c r="D41" t="n">
-        <v>1246.207121519688</v>
+        <v>454.9524318874146</v>
       </c>
       <c r="E41" t="n">
-        <v>868.366601189181</v>
+        <v>40.61221640431133</v>
       </c>
       <c r="F41" t="n">
-        <v>447.3361891428685</v>
+        <v>40.61221640431133</v>
       </c>
       <c r="G41" t="n">
         <v>40.61221640431133</v>
@@ -7411,25 +7411,25 @@
         <v>40.61221640431133</v>
       </c>
       <c r="J41" t="n">
-        <v>134.750025907721</v>
+        <v>426.9335807895452</v>
       </c>
       <c r="K41" t="n">
-        <v>296.3872995332651</v>
+        <v>588.5708544150893</v>
       </c>
       <c r="L41" t="n">
-        <v>511.8578439636572</v>
+        <v>804.0413988454814</v>
       </c>
       <c r="M41" t="n">
-        <v>764.4364635365191</v>
+        <v>1056.620018418343</v>
       </c>
       <c r="N41" t="n">
-        <v>1022.970661630314</v>
+        <v>1315.154216512138</v>
       </c>
       <c r="O41" t="n">
-        <v>1261.69639291833</v>
+        <v>1553.879947800154</v>
       </c>
       <c r="P41" t="n">
-        <v>1451.470376109782</v>
+        <v>1743.653930991607</v>
       </c>
       <c r="Q41" t="n">
         <v>1866.656326665284</v>
@@ -7438,25 +7438,25 @@
         <v>2030.610820215566</v>
       </c>
       <c r="S41" t="n">
-        <v>2030.610820215566</v>
+        <v>1941.002990321881</v>
       </c>
       <c r="T41" t="n">
-        <v>2030.610820215566</v>
+        <v>1727.570379284833</v>
       </c>
       <c r="U41" t="n">
-        <v>2030.610820215566</v>
+        <v>1727.570379284833</v>
       </c>
       <c r="V41" t="n">
-        <v>2030.610820215566</v>
+        <v>1727.570379284833</v>
       </c>
       <c r="W41" t="n">
-        <v>1646.850519350735</v>
+        <v>1343.810078420002</v>
       </c>
       <c r="X41" t="n">
-        <v>1246.207121519688</v>
+        <v>1275.298202238634</v>
       </c>
       <c r="Y41" t="n">
-        <v>1246.207121519688</v>
+        <v>1275.298202238634</v>
       </c>
     </row>
     <row r="42">
@@ -7466,22 +7466,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>687.2649286030785</v>
+        <v>687.2649286030786</v>
       </c>
       <c r="C42" t="n">
-        <v>553.2698573520241</v>
+        <v>553.2698573520244</v>
       </c>
       <c r="D42" t="n">
-        <v>436.3726995714165</v>
+        <v>436.3726995714167</v>
       </c>
       <c r="E42" t="n">
-        <v>315.8798835637446</v>
+        <v>315.8798835637447</v>
       </c>
       <c r="F42" t="n">
         <v>206.9200037462492</v>
       </c>
       <c r="G42" t="n">
-        <v>101.0022921857836</v>
+        <v>101.0022921857837</v>
       </c>
       <c r="H42" t="n">
         <v>40.61221640431133</v>
@@ -7490,28 +7490,28 @@
         <v>56.46434519921166</v>
       </c>
       <c r="J42" t="n">
-        <v>104.910951613303</v>
+        <v>348.5793555879363</v>
       </c>
       <c r="K42" t="n">
-        <v>219.3666224505176</v>
+        <v>463.0350264251509</v>
       </c>
       <c r="L42" t="n">
-        <v>392.027025766067</v>
+        <v>635.6954297407003</v>
       </c>
       <c r="M42" t="n">
-        <v>894.6032037694197</v>
+        <v>845.0215081546153</v>
       </c>
       <c r="N42" t="n">
-        <v>1296.156273655564</v>
+        <v>1065.723326185838</v>
       </c>
       <c r="O42" t="n">
-        <v>1798.732451658917</v>
+        <v>1258.623355028945</v>
       </c>
       <c r="P42" t="n">
-        <v>1945.721839343933</v>
+        <v>1451.781965863177</v>
       </c>
       <c r="Q42" t="n">
-        <v>2023.763077800362</v>
+        <v>1935.793361323381</v>
       </c>
       <c r="R42" t="n">
         <v>2030.610820215566</v>
@@ -7526,16 +7526,16 @@
         <v>1590.24059800658</v>
       </c>
       <c r="V42" t="n">
-        <v>1376.529070999613</v>
+        <v>1376.529070999614</v>
       </c>
       <c r="W42" t="n">
         <v>1163.295902735942</v>
       </c>
       <c r="X42" t="n">
-        <v>986.9699208748351</v>
+        <v>986.9699208748352</v>
       </c>
       <c r="Y42" t="n">
-        <v>827.5679612386651</v>
+        <v>827.5679612386652</v>
       </c>
     </row>
     <row r="43">
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>703.5988558590652</v>
+        <v>420.4453485909181</v>
       </c>
       <c r="C43" t="n">
-        <v>532.5054834207817</v>
+        <v>249.3519761526346</v>
       </c>
       <c r="D43" t="n">
-        <v>532.5054834207817</v>
+        <v>249.3519761526346</v>
       </c>
       <c r="E43" t="n">
-        <v>371.5946682891012</v>
+        <v>249.3519761526346</v>
       </c>
       <c r="F43" t="n">
-        <v>206.9635423996924</v>
+        <v>249.3519761526346</v>
       </c>
       <c r="G43" t="n">
-        <v>40.61221640431133</v>
+        <v>249.3519761526346</v>
       </c>
       <c r="H43" t="n">
-        <v>40.61221640431133</v>
+        <v>107.7380268429629</v>
       </c>
       <c r="I43" t="n">
         <v>40.61221640431133</v>
@@ -7578,13 +7578,13 @@
         <v>764.8260288135966</v>
       </c>
       <c r="M43" t="n">
-        <v>1040.151708579745</v>
+        <v>1192.21806555632</v>
       </c>
       <c r="N43" t="n">
-        <v>1455.834096635854</v>
+        <v>1275.866152164845</v>
       </c>
       <c r="O43" t="n">
-        <v>1839.944601861075</v>
+        <v>1579.047118387957</v>
       </c>
       <c r="P43" t="n">
         <v>1891.296510382675</v>
@@ -7599,22 +7599,22 @@
         <v>1859.887304428093</v>
       </c>
       <c r="T43" t="n">
-        <v>1633.447787495787</v>
+        <v>1624.180025288118</v>
       </c>
       <c r="U43" t="n">
-        <v>1633.447787495787</v>
+        <v>1624.180025288118</v>
       </c>
       <c r="V43" t="n">
-        <v>1633.447787495787</v>
+        <v>1350.29428022764</v>
       </c>
       <c r="W43" t="n">
-        <v>1354.378123004662</v>
+        <v>1071.224615736514</v>
       </c>
       <c r="X43" t="n">
-        <v>1116.034260864345</v>
+        <v>832.8807535961978</v>
       </c>
       <c r="Y43" t="n">
-        <v>891.2985622531096</v>
+        <v>608.1450549849625</v>
       </c>
     </row>
     <row r="44">
@@ -7624,16 +7624,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>450.7368070910412</v>
+        <v>1690.571364527396</v>
       </c>
       <c r="C44" t="n">
-        <v>40.61221640431133</v>
+        <v>1280.446773840667</v>
       </c>
       <c r="D44" t="n">
-        <v>40.61221640431133</v>
+        <v>875.9828439337271</v>
       </c>
       <c r="E44" t="n">
-        <v>40.61221640431133</v>
+        <v>461.6426284506238</v>
       </c>
       <c r="F44" t="n">
         <v>40.61221640431133</v>
@@ -7648,52 +7648,52 @@
         <v>40.61221640431133</v>
       </c>
       <c r="J44" t="n">
-        <v>461.5258527954501</v>
+        <v>134.750025907721</v>
       </c>
       <c r="K44" t="n">
-        <v>623.1631264209943</v>
+        <v>296.3872995332651</v>
       </c>
       <c r="L44" t="n">
-        <v>838.6336708513863</v>
+        <v>511.8578439636572</v>
       </c>
       <c r="M44" t="n">
-        <v>1091.212290424248</v>
+        <v>764.4364635365191</v>
       </c>
       <c r="N44" t="n">
-        <v>1349.746488518043</v>
+        <v>1022.970661630314</v>
       </c>
       <c r="O44" t="n">
-        <v>1588.472219806059</v>
+        <v>1261.69639291833</v>
       </c>
       <c r="P44" t="n">
-        <v>1778.246202997512</v>
+        <v>1451.470376109782</v>
       </c>
       <c r="Q44" t="n">
-        <v>1901.248598671189</v>
+        <v>1866.656326665284</v>
       </c>
       <c r="R44" t="n">
         <v>2030.610820215566</v>
       </c>
       <c r="S44" t="n">
-        <v>2030.610820215566</v>
+        <v>1941.002990321881</v>
       </c>
       <c r="T44" t="n">
-        <v>2030.610820215566</v>
+        <v>1941.002990321881</v>
       </c>
       <c r="U44" t="n">
-        <v>2030.610820215566</v>
+        <v>1941.002990321881</v>
       </c>
       <c r="V44" t="n">
-        <v>2030.610820215566</v>
+        <v>1690.571364527396</v>
       </c>
       <c r="W44" t="n">
-        <v>1662.538057638488</v>
+        <v>1690.571364527396</v>
       </c>
       <c r="X44" t="n">
-        <v>1261.894659807441</v>
+        <v>1690.571364527396</v>
       </c>
       <c r="Y44" t="n">
-        <v>860.9579867555307</v>
+        <v>1690.571364527396</v>
       </c>
     </row>
     <row r="45">
@@ -7727,25 +7727,25 @@
         <v>56.46434519921166</v>
       </c>
       <c r="J45" t="n">
-        <v>104.910951613303</v>
+        <v>348.5793555879363</v>
       </c>
       <c r="K45" t="n">
-        <v>607.4871296166557</v>
+        <v>509.2042495743675</v>
       </c>
       <c r="L45" t="n">
-        <v>780.1475329322051</v>
+        <v>681.8646528899169</v>
       </c>
       <c r="M45" t="n">
-        <v>989.4736113461199</v>
+        <v>891.1907313038317</v>
       </c>
       <c r="N45" t="n">
-        <v>1210.175429377343</v>
+        <v>1111.892549335055</v>
       </c>
       <c r="O45" t="n">
-        <v>1403.07545822045</v>
+        <v>1304.792578178162</v>
       </c>
       <c r="P45" t="n">
-        <v>1550.064845905466</v>
+        <v>1451.781965863177</v>
       </c>
       <c r="Q45" t="n">
         <v>1935.793361323381</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>92.84875800864214</v>
+        <v>674.1194327304534</v>
       </c>
       <c r="C46" t="n">
-        <v>40.61221640431133</v>
+        <v>674.1194327304534</v>
       </c>
       <c r="D46" t="n">
-        <v>40.61221640431133</v>
+        <v>674.1194327304534</v>
       </c>
       <c r="E46" t="n">
-        <v>40.61221640431133</v>
+        <v>513.2086175987729</v>
       </c>
       <c r="F46" t="n">
-        <v>40.61221640431133</v>
+        <v>348.5774917093642</v>
       </c>
       <c r="G46" t="n">
-        <v>40.61221640431133</v>
+        <v>182.2261657139831</v>
       </c>
       <c r="H46" t="n">
         <v>40.61221640431133</v>
@@ -7818,40 +7818,40 @@
         <v>1192.21806555632</v>
       </c>
       <c r="N46" t="n">
-        <v>1275.866152164845</v>
+        <v>1607.90045361243</v>
       </c>
       <c r="O46" t="n">
-        <v>1659.976657390065</v>
+        <v>1839.944601861075</v>
       </c>
       <c r="P46" t="n">
-        <v>1972.226049384784</v>
+        <v>1891.296510382675</v>
       </c>
       <c r="Q46" t="n">
         <v>2030.610820215566</v>
       </c>
       <c r="R46" t="n">
-        <v>1985.763337173762</v>
+        <v>2030.610820215566</v>
       </c>
       <c r="S46" t="n">
-        <v>1815.039821386289</v>
+        <v>1859.887304428093</v>
       </c>
       <c r="T46" t="n">
-        <v>1579.332542246314</v>
+        <v>1639.510247287337</v>
       </c>
       <c r="U46" t="n">
-        <v>1296.583434705842</v>
+        <v>1639.510247287337</v>
       </c>
       <c r="V46" t="n">
-        <v>1022.697689645364</v>
+        <v>1365.624502226859</v>
       </c>
       <c r="W46" t="n">
-        <v>743.6280251542385</v>
+        <v>1086.554837735733</v>
       </c>
       <c r="X46" t="n">
-        <v>505.2841630139218</v>
+        <v>1086.554837735733</v>
       </c>
       <c r="Y46" t="n">
-        <v>280.5484644026865</v>
+        <v>861.8191391244977</v>
       </c>
     </row>
   </sheetData>
@@ -7981,25 +7981,25 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K2" t="n">
-        <v>98.9212105437814</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L2" t="n">
-        <v>105.6822113911171</v>
+        <v>105.2702189334091</v>
       </c>
       <c r="M2" t="n">
-        <v>93.29022445704545</v>
+        <v>103.4870377853177</v>
       </c>
       <c r="N2" t="n">
-        <v>103.1091040848916</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O2" t="n">
-        <v>103.3865889540554</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P2" t="n">
-        <v>93.64936328088416</v>
+        <v>103.8461766091564</v>
       </c>
       <c r="Q2" t="n">
-        <v>90.03380439915205</v>
+        <v>100.2306177274243</v>
       </c>
       <c r="R2" t="n">
         <v>87.31214281472352</v>
@@ -8057,25 +8057,25 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J3" t="n">
-        <v>61.15405967056429</v>
+        <v>61.56605212827225</v>
       </c>
       <c r="K3" t="n">
-        <v>55.82578278461539</v>
+        <v>65.61060365517967</v>
       </c>
       <c r="L3" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M3" t="n">
-        <v>67.76109706668967</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N3" t="n">
-        <v>63.39020672202223</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O3" t="n">
         <v>57.751479</v>
       </c>
       <c r="P3" t="n">
-        <v>54.25963500280375</v>
+        <v>64.45644833107599</v>
       </c>
       <c r="Q3" t="n">
         <v>56.69261850483872</v>
@@ -8136,25 +8136,25 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>51.43314568295542</v>
+        <v>61.62995901122766</v>
       </c>
       <c r="K4" t="n">
-        <v>52.25036955906683</v>
+        <v>62.44718288733907</v>
       </c>
       <c r="L4" t="n">
         <v>64.82510722217376</v>
       </c>
       <c r="M4" t="n">
-        <v>66.46175582705229</v>
+        <v>56.26494249878004</v>
       </c>
       <c r="N4" t="n">
-        <v>61.90945883669168</v>
+        <v>51.71264550841944</v>
       </c>
       <c r="O4" t="n">
-        <v>65.85971894356061</v>
+        <v>56.07489807299633</v>
       </c>
       <c r="P4" t="n">
-        <v>55.77984163990478</v>
+        <v>65.56466251046906</v>
       </c>
       <c r="Q4" t="n">
         <v>61.35952565992557</v>
@@ -8221,22 +8221,22 @@
         <v>89.13638967321712</v>
       </c>
       <c r="L5" t="n">
-        <v>95.48539806284482</v>
+        <v>105.6822113911171</v>
       </c>
       <c r="M5" t="n">
-        <v>93.29022445704545</v>
+        <v>103.0750453276097</v>
       </c>
       <c r="N5" t="n">
-        <v>103.1091040848916</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O5" t="n">
         <v>103.3865889540554</v>
       </c>
       <c r="P5" t="n">
-        <v>103.8461766091564</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q5" t="n">
-        <v>99.81862526971632</v>
+        <v>100.2306177274243</v>
       </c>
       <c r="R5" t="n">
         <v>87.31214281472352</v>
@@ -8294,19 +8294,19 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J6" t="n">
-        <v>51.36923880000001</v>
+        <v>61.56605212827225</v>
       </c>
       <c r="K6" t="n">
         <v>66.02259611288764</v>
       </c>
       <c r="L6" t="n">
-        <v>56.11452381084905</v>
+        <v>65.89934468141333</v>
       </c>
       <c r="M6" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N6" t="n">
-        <v>62.97821426431427</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O6" t="n">
         <v>57.751479</v>
@@ -8315,7 +8315,7 @@
         <v>64.45644833107599</v>
       </c>
       <c r="Q6" t="n">
-        <v>66.88943183311096</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R6" t="n">
         <v>59.00019910540541</v>
@@ -8379,13 +8379,13 @@
         <v>52.25036955906683</v>
       </c>
       <c r="L7" t="n">
-        <v>54.62829389390151</v>
+        <v>64.41311476446579</v>
       </c>
       <c r="M7" t="n">
-        <v>66.46175582705229</v>
+        <v>56.26494249878004</v>
       </c>
       <c r="N7" t="n">
-        <v>51.71264550841944</v>
+        <v>61.90945883669168</v>
       </c>
       <c r="O7" t="n">
         <v>66.27171140126856</v>
@@ -8394,7 +8394,7 @@
         <v>65.97665496817703</v>
       </c>
       <c r="Q7" t="n">
-        <v>71.14434653048984</v>
+        <v>61.35952565992557</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8458,7 +8458,7 @@
         <v>89.13638967321712</v>
       </c>
       <c r="L8" t="n">
-        <v>105.6822113911171</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M8" t="n">
         <v>93.29022445704545</v>
@@ -8470,7 +8470,7 @@
         <v>102.9745964963474</v>
       </c>
       <c r="P8" t="n">
-        <v>93.64936328088416</v>
+        <v>103.8461766091564</v>
       </c>
       <c r="Q8" t="n">
         <v>100.2306177274243</v>
@@ -8531,13 +8531,13 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J9" t="n">
-        <v>51.36923880000001</v>
+        <v>61.15405967056429</v>
       </c>
       <c r="K9" t="n">
-        <v>65.61060365517967</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L9" t="n">
-        <v>56.11452381084905</v>
+        <v>66.31133713912129</v>
       </c>
       <c r="M9" t="n">
         <v>57.56428373841742</v>
@@ -8546,13 +8546,13 @@
         <v>53.19339339374999</v>
       </c>
       <c r="O9" t="n">
-        <v>67.94829232827223</v>
+        <v>57.751479</v>
       </c>
       <c r="P9" t="n">
-        <v>54.25963500280375</v>
+        <v>64.45644833107599</v>
       </c>
       <c r="Q9" t="n">
-        <v>66.88943183311096</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R9" t="n">
         <v>69.19701243367766</v>
@@ -8610,28 +8610,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>51.43314568295542</v>
+        <v>61.62995901122766</v>
       </c>
       <c r="K10" t="n">
-        <v>52.25036955906683</v>
+        <v>62.44718288733907</v>
       </c>
       <c r="L10" t="n">
         <v>54.62829389390151</v>
       </c>
       <c r="M10" t="n">
-        <v>66.46175582705229</v>
+        <v>56.26494249878004</v>
       </c>
       <c r="N10" t="n">
-        <v>61.49746637898372</v>
+        <v>51.71264550841944</v>
       </c>
       <c r="O10" t="n">
-        <v>66.27171140126856</v>
+        <v>56.07489807299633</v>
       </c>
       <c r="P10" t="n">
-        <v>65.97665496817703</v>
+        <v>65.56466251046906</v>
       </c>
       <c r="Q10" t="n">
-        <v>61.35952565992557</v>
+        <v>71.55633898819781</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8689,16 +8689,16 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>93.33676269720814</v>
       </c>
       <c r="L11" t="n">
-        <v>170.8905692196711</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>252.5227862934251</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -8765,7 +8765,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>3.753207126057646</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J12" t="n">
         <v>246.129700984478</v>
@@ -8777,7 +8777,7 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>62.64783024658277</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8786,7 +8786,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>46.63557893860241</v>
       </c>
       <c r="Q12" t="n">
         <v>410.0708656603775</v>
@@ -8850,22 +8850,22 @@
         <v>65.65794306195595</v>
       </c>
       <c r="K13" t="n">
-        <v>208.3638319047618</v>
+        <v>108.3792569404477</v>
       </c>
       <c r="L13" t="n">
-        <v>317.1506174091142</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
         <v>348.4508580952379</v>
       </c>
       <c r="N13" t="n">
-        <v>181.7858024959695</v>
+        <v>335.3881832803894</v>
       </c>
       <c r="O13" t="n">
         <v>318.2573327462026</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>263.5328115890082</v>
       </c>
       <c r="Q13" t="n">
         <v>127.5494547533709</v>
@@ -8926,13 +8926,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>93.33676269720814</v>
       </c>
       <c r="L14" t="n">
-        <v>290.005690477738</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -8941,7 +8941,7 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>133.407665035358</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -9005,19 +9005,19 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>392.0409163294324</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>296.2122218075129</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>284.7215757294241</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -9026,7 +9026,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>121.9023480465213</v>
+        <v>64.66552826954771</v>
       </c>
       <c r="R15" t="n">
         <v>88.85829947169823</v>
@@ -9084,25 +9084,25 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K16" t="n">
-        <v>208.3638319047618</v>
+        <v>54.7614511203418</v>
       </c>
       <c r="L16" t="n">
         <v>317.1506174091142</v>
       </c>
       <c r="M16" t="n">
-        <v>332.3617920641549</v>
+        <v>348.4508580952379</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>335.3881832803894</v>
       </c>
       <c r="O16" t="n">
         <v>318.2573327462026</v>
       </c>
       <c r="P16" t="n">
-        <v>263.5328115890082</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
         <v>127.5494547533709</v>
@@ -9163,10 +9163,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>295.1349039210346</v>
       </c>
       <c r="K17" t="n">
-        <v>156.8977527703321</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -9178,7 +9178,7 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>266.515602742764</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -9187,7 +9187,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9239,10 +9239,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>3.753207126057646</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9257,16 +9257,16 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>312.8041910709552</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>84.83163963180391</v>
+        <v>46.63557893860241</v>
       </c>
       <c r="Q18" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9321,13 +9321,13 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>65.65794306195595</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>208.3638319047618</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>218.2727577818886</v>
+        <v>317.1506174091142</v>
       </c>
       <c r="M19" t="n">
         <v>348.4508580952379</v>
@@ -9336,13 +9336,13 @@
         <v>335.3881832803894</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>318.2573327462026</v>
       </c>
       <c r="P19" t="n">
-        <v>263.5328115890082</v>
+        <v>247.9688489356687</v>
       </c>
       <c r="Q19" t="n">
-        <v>127.5494547533709</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9403,19 +9403,19 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>133.4076650353582</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>290.0056904777381</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>246.5070504136947</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>176.9063050994015</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -9476,34 +9476,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>3.753207126057646</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K21" t="n">
-        <v>392.0409163294325</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>130.9442043042797</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>284.7215757294242</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>46.63557893860241</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9561,10 +9561,10 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>208.3638319047618</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>317.1506174091142</v>
       </c>
       <c r="M22" t="n">
         <v>348.4508580952379</v>
@@ -9576,10 +9576,10 @@
         <v>318.2573327462026</v>
       </c>
       <c r="P22" t="n">
-        <v>263.5328115890082</v>
+        <v>247.9688489356689</v>
       </c>
       <c r="Q22" t="n">
-        <v>93.22282285101308</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9646,16 +9646,16 @@
         <v>395.3536089598028</v>
       </c>
       <c r="M23" t="n">
-        <v>357.8707047754898</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>115.118346110833</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>87.32423415123148</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -9713,16 +9713,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>3.753207126057646</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K24" t="n">
-        <v>497.3888348114972</v>
+        <v>46.63557893860283</v>
       </c>
       <c r="L24" t="n">
-        <v>310.3178615516397</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9737,10 +9737,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9892,13 +9892,13 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>421.3097314233785</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>382.1935034785743</v>
       </c>
       <c r="R26" t="n">
-        <v>89.16222364725742</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9950,13 +9950,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>3.753207126057646</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J27" t="n">
-        <v>246.129700984478</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>497.3888348114972</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9968,13 +9968,13 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>327.1679504939639</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>464.526494561193</v>
       </c>
       <c r="Q27" t="n">
-        <v>64.18816056716159</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -10111,25 +10111,25 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>449.7306501768209</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>67.38384756738623</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>351.8549688957594</v>
+        <v>60.74130489381469</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>421.3097314233784</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -10190,10 +10190,10 @@
         <v>3.753207126057646</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K30" t="n">
-        <v>497.3888348114972</v>
+        <v>82.64920169547156</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10202,7 +10202,7 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>390.0694942114888</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -10211,10 +10211,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>310.3178615516397</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,22 +10348,22 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>115.1183461108329</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>395.3536089598028</v>
       </c>
       <c r="M32" t="n">
-        <v>116.8300577659357</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>351.8549688957594</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>371.8635212248287</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -10436,19 +10436,19 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>389.5545868101168</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>418.15210955302</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>397.6358307027594</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>295.1349039210346</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -10603,7 +10603,7 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>295.1349039210345</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -10661,7 +10661,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>3.753207126057646</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J36" t="n">
         <v>246.129700984478</v>
@@ -10676,19 +10676,19 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>248.7728043077034</v>
+        <v>284.7215757294241</v>
       </c>
       <c r="O36" t="n">
-        <v>312.8041910709553</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>171.9848688695558</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10743,10 +10743,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K37" t="n">
-        <v>205.3374406885274</v>
+        <v>208.3638319047618</v>
       </c>
       <c r="L37" t="n">
         <v>317.1506174091142</v>
@@ -10758,7 +10758,7 @@
         <v>335.3881832803894</v>
       </c>
       <c r="O37" t="n">
-        <v>318.2573327462026</v>
+        <v>249.5729984680122</v>
       </c>
       <c r="P37" t="n">
         <v>263.5328115890082</v>
@@ -10825,10 +10825,10 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>344.3827316947561</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>40.00549457403071</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -10837,13 +10837,13 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>79.03062381833996</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>383.4078609390653</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -10901,7 +10901,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10913,19 +10913,19 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>68.81938832382377</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>312.8041910709553</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>46.63557893860241</v>
       </c>
       <c r="Q39" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10980,22 +10980,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K40" t="n">
-        <v>205.3374406885274</v>
+        <v>208.3638319047618</v>
       </c>
       <c r="L40" t="n">
-        <v>317.1506174091142</v>
+        <v>218.2727577818886</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>348.4508580952379</v>
       </c>
       <c r="N40" t="n">
         <v>335.3881832803894</v>
       </c>
       <c r="O40" t="n">
-        <v>318.2573327462026</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
         <v>263.5328115890082</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>295.1349039210346</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -11080,7 +11080,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>295.1349039210345</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>128.2784515920617</v>
@@ -11138,7 +11138,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11147,22 +11147,22 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>296.2122218075129</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>182.6780321766884</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>312.8041910709553</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>46.63557893860241</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11226,16 +11226,16 @@
         <v>317.1506174091142</v>
       </c>
       <c r="M43" t="n">
-        <v>194.8484773108179</v>
+        <v>348.4508580952379</v>
       </c>
       <c r="N43" t="n">
-        <v>335.3881832803894</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>318.2573327462026</v>
+        <v>236.5103236531638</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>263.5328115890082</v>
       </c>
       <c r="Q43" t="n">
         <v>127.5494547533709</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>330.076592815888</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -11317,10 +11317,10 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>295.1349039210345</v>
       </c>
       <c r="R44" t="n">
-        <v>93.3367626972081</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11375,10 +11375,10 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K45" t="n">
-        <v>392.0409163294324</v>
+        <v>46.63557893860261</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11396,7 +11396,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>310.7952292540258</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R45" t="n">
         <v>88.85829947169823</v>
@@ -11466,16 +11466,16 @@
         <v>348.4508580952379</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>335.3881832803894</v>
       </c>
       <c r="O46" t="n">
-        <v>318.2573327462026</v>
+        <v>164.6549519617827</v>
       </c>
       <c r="P46" t="n">
-        <v>263.5328115890082</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>45.80244566033211</v>
+        <v>127.5494547533709</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23266,10 +23266,10 @@
         <v>400.41929060787</v>
       </c>
       <c r="E11" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>402.6567330111716</v>
@@ -23311,22 +23311,22 @@
         <v>88.71175159474804</v>
       </c>
       <c r="T11" t="n">
-        <v>84.23278687285335</v>
+        <v>211.2982849266778</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>346.3391791168841</v>
+        <v>260.5392790618076</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y11" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>88.4156199024802</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>44.3990082113859</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23472,16 +23472,16 @@
         <v>233.3502063485754</v>
       </c>
       <c r="U13" t="n">
-        <v>245.5661271075896</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W13" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
-        <v>235.9604235189134</v>
+        <v>77.56503490276404</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23497,22 +23497,22 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D14" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G14" t="n">
-        <v>402.6567330111716</v>
+        <v>358.5032302530685</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>287.4780251328136</v>
       </c>
       <c r="I14" t="n">
         <v>8.989743158120675</v>
@@ -23554,16 +23554,16 @@
         <v>254.331145362691</v>
       </c>
       <c r="V14" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>353.4659475828907</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23661,10 +23661,10 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>159.3017069803637</v>
+        <v>13.06817863367107</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>88.4156199024802</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,25 +23703,25 @@
         <v>44.3990082113859</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>169.0162806295986</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>233.3502063485754</v>
       </c>
       <c r="U16" t="n">
         <v>279.921616465067</v>
       </c>
       <c r="V16" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.4260820356894612</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23731,28 +23731,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>406.1189678678446</v>
+        <v>222.9497125178419</v>
       </c>
       <c r="C17" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D17" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G17" t="n">
-        <v>77.99342404963835</v>
+        <v>402.6567330111716</v>
       </c>
       <c r="H17" t="n">
         <v>287.4780251328136</v>
       </c>
       <c r="I17" t="n">
-        <v>8.989743158120675</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,22 +23782,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>88.71175159474804</v>
       </c>
       <c r="T17" t="n">
         <v>211.2982849266778</v>
       </c>
       <c r="U17" t="n">
-        <v>254.331145362691</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23892,10 +23892,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D19" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23904,13 +23904,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.6878127354272</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>88.4156199024802</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>44.3990082113859</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23946,19 +23946,19 @@
         <v>233.3502063485754</v>
       </c>
       <c r="U19" t="n">
-        <v>279.921616465067</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>19.77375129965043</v>
       </c>
       <c r="X19" t="n">
-        <v>97.49586215220842</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C20" t="n">
         <v>406.0233447798626</v>
@@ -23977,7 +23977,7 @@
         <v>400.41929060787</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>202.8286593905711</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -23989,7 +23989,7 @@
         <v>287.4780251328136</v>
       </c>
       <c r="I20" t="n">
-        <v>8.989743158120675</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,22 +24019,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>88.71175159474804</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>211.2982849266778</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>254.331145362691</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W20" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>62.33096821273193</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y20" t="n">
         <v>396.9273063213908</v>
@@ -24135,19 +24135,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.6878127354272</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.197809816575</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>88.4156199024802</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,13 +24177,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>169.0162806295986</v>
+        <v>4.421073146058575</v>
       </c>
       <c r="T22" t="n">
-        <v>233.3502063485754</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>95.15400860812238</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>271.1468876098733</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24208,7 +24208,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D23" t="n">
         <v>400.41929060787</v>
@@ -24217,13 +24217,13 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>233.7190674160763</v>
+        <v>402.6567330111716</v>
       </c>
       <c r="H23" t="n">
-        <v>287.4780251328136</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24256,25 +24256,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>88.71175159474804</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>25.15492858390058</v>
       </c>
       <c r="U23" t="n">
-        <v>254.331145362691</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="24">
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>44.3990082113859</v>
       </c>
       <c r="S25" t="n">
         <v>169.0162806295986</v>
@@ -24420,13 +24420,13 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>279.921616465067</v>
       </c>
       <c r="V25" t="n">
-        <v>137.0262743002831</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>276.2789678462144</v>
+        <v>88.9846174700443</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24442,22 +24442,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>402.6567330111716</v>
+        <v>254.4574331157645</v>
       </c>
       <c r="H26" t="n">
         <v>287.4780251328136</v>
@@ -24493,25 +24493,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>88.71175159474804</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>211.2982849266778</v>
       </c>
       <c r="U26" t="n">
-        <v>254.331145362691</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y26" t="n">
-        <v>311.2036334494024</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E28" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.6878127354272</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>126.9193836964836</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>88.4156199024802</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>20.65332881755838</v>
+        <v>44.3990082113859</v>
       </c>
       <c r="S28" t="n">
-        <v>169.0162806295986</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>233.3502063485754</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24685,10 +24685,10 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>369.779202031867</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -24697,10 +24697,10 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>4.267580477006618</v>
+        <v>287.4780251328136</v>
       </c>
       <c r="I29" t="n">
-        <v>8.989743158120675</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24733,22 +24733,22 @@
         <v>88.71175159474804</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>211.2982849266778</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>254.331145362691</v>
       </c>
       <c r="V29" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24840,10 +24840,10 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>22.04047458072965</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>44.3990082113859</v>
+        <v>32.55104420675315</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24894,7 +24894,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>279.921616465067</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24903,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="32">
@@ -24916,28 +24916,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>402.3244577409573</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D32" t="n">
-        <v>400.41929060787</v>
+        <v>215.0322381741427</v>
       </c>
       <c r="E32" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>402.6567330111716</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>287.4780251328136</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>8.989743158120675</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24970,22 +24970,22 @@
         <v>88.71175159474804</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>211.2982849266778</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="33">
@@ -25089,10 +25089,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>164.6878127354272</v>
       </c>
       <c r="H34" t="n">
-        <v>9.343726422757868</v>
+        <v>51.46887557822687</v>
       </c>
       <c r="I34" t="n">
         <v>88.4156199024802</v>
@@ -25125,16 +25125,16 @@
         <v>44.3990082113859</v>
       </c>
       <c r="S34" t="n">
-        <v>169.0162806295986</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>233.3502063485754</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25156,7 +25156,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C35" t="n">
-        <v>406.0233447798626</v>
+        <v>95.53771807808647</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -25168,7 +25168,7 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>402.6567330111716</v>
       </c>
       <c r="H35" t="n">
         <v>287.4780251328136</v>
@@ -25207,22 +25207,22 @@
         <v>88.71175159474804</v>
       </c>
       <c r="T35" t="n">
-        <v>211.2982849266778</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>210.2073920343943</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25317,13 +25317,13 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25359,22 +25359,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>44.3990082113859</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>169.0162806295986</v>
       </c>
       <c r="T37" t="n">
-        <v>233.3502063485754</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>49.00586891246502</v>
+        <v>272.8480384150388</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25402,16 +25402,16 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F38" t="n">
-        <v>272.2871005111083</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>239.4202981503663</v>
       </c>
       <c r="H38" t="n">
-        <v>287.4780251328136</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>8.989743158120675</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25450,16 +25450,16 @@
         <v>254.331145362691</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25566,7 +25566,7 @@
         <v>164.6878127354272</v>
       </c>
       <c r="H40" t="n">
-        <v>140.197809816575</v>
+        <v>44.45078350120347</v>
       </c>
       <c r="I40" t="n">
         <v>88.4156199024802</v>
@@ -25599,10 +25599,10 @@
         <v>44.3990082113859</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>169.0162806295986</v>
       </c>
       <c r="T40" t="n">
-        <v>73.26925431422728</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25627,22 +25627,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E41" t="n">
-        <v>36.13469820107065</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>402.6567330111716</v>
       </c>
       <c r="H41" t="n">
         <v>287.4780251328136</v>
@@ -25678,10 +25678,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>88.71175159474804</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>211.2982849266778</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>254.331145362691</v>
@@ -25693,7 +25693,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>328.8102064331828</v>
       </c>
       <c r="Y41" t="n">
         <v>396.9273063213908</v>
@@ -25794,19 +25794,19 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>164.6878127354272</v>
       </c>
       <c r="H43" t="n">
-        <v>140.197809816575</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>88.4156199024802</v>
+        <v>21.96106756821519</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25839,13 +25839,13 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>9.1750845855926</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>279.921616465067</v>
       </c>
       <c r="V43" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25864,19 +25864,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>402.6567330111716</v>
@@ -25915,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>88.71175159474804</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>211.2982849266778</v>
@@ -25924,16 +25924,16 @@
         <v>254.331145362691</v>
       </c>
       <c r="V44" t="n">
-        <v>346.3391791168841</v>
+        <v>98.41186958034382</v>
       </c>
       <c r="W44" t="n">
-        <v>15.53066290487544</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="45">
@@ -26025,22 +26025,22 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>117.6682625256132</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>164.6878127354272</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.197809816575</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>88.4156199024802</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>44.3990082113859</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>15.17691977922669</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>279.921616465067</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>453246.899639909</v>
+        <v>453246.8996399089</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>510684.4459173515</v>
+        <v>510684.4459173512</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>510684.4459173512</v>
+        <v>510684.4459173513</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>510684.4459173515</v>
+        <v>510684.4459173513</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>510684.4459173512</v>
+        <v>510684.4459173513</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>453246.8996399087</v>
+        <v>453246.8996399088</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>453246.8996399088</v>
+        <v>453246.8996399087</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>453246.8996399088</v>
+        <v>453246.8996399089</v>
       </c>
     </row>
   </sheetData>
@@ -26316,37 +26316,37 @@
         <v>455701.6505159024</v>
       </c>
       <c r="C2" t="n">
-        <v>455701.6505159025</v>
+        <v>455701.6505159026</v>
       </c>
       <c r="D2" t="n">
         <v>455701.6505159024</v>
       </c>
       <c r="E2" t="n">
-        <v>281020.0431243428</v>
+        <v>281020.0431243429</v>
       </c>
       <c r="F2" t="n">
-        <v>281020.0431243428</v>
+        <v>281020.0431243431</v>
       </c>
       <c r="G2" t="n">
         <v>281020.0431243429</v>
       </c>
       <c r="H2" t="n">
-        <v>281020.0431243429</v>
+        <v>281020.0431243427</v>
       </c>
       <c r="I2" t="n">
-        <v>310668.6994566603</v>
+        <v>310668.6994566604</v>
       </c>
       <c r="J2" t="n">
-        <v>310668.6994566607</v>
+        <v>310668.6994566605</v>
       </c>
       <c r="K2" t="n">
         <v>310668.6994566605</v>
       </c>
       <c r="L2" t="n">
-        <v>310668.6994566605</v>
+        <v>310668.6994566604</v>
       </c>
       <c r="M2" t="n">
-        <v>281020.0431243429</v>
+        <v>281020.0431243428</v>
       </c>
       <c r="N2" t="n">
         <v>281020.0431243427</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3417.186673010583</v>
+        <v>3417.186673010578</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26420,7 +26420,7 @@
         <v>343784.7571048397</v>
       </c>
       <c r="C4" t="n">
-        <v>343784.7571048397</v>
+        <v>343784.7571048396</v>
       </c>
       <c r="D4" t="n">
         <v>343784.7571048397</v>
@@ -26435,31 +26435,31 @@
         <v>32157.04676575314</v>
       </c>
       <c r="H4" t="n">
+        <v>32157.04676575315</v>
+      </c>
+      <c r="I4" t="n">
+        <v>45186.43135361411</v>
+      </c>
+      <c r="J4" t="n">
+        <v>45186.43135361411</v>
+      </c>
+      <c r="K4" t="n">
+        <v>45186.43135361411</v>
+      </c>
+      <c r="L4" t="n">
+        <v>45186.43135361411</v>
+      </c>
+      <c r="M4" t="n">
         <v>32157.04676575314</v>
       </c>
-      <c r="I4" t="n">
-        <v>45186.43135361412</v>
-      </c>
-      <c r="J4" t="n">
-        <v>45186.43135361412</v>
-      </c>
-      <c r="K4" t="n">
-        <v>45186.43135361412</v>
-      </c>
-      <c r="L4" t="n">
-        <v>45186.43135361412</v>
-      </c>
-      <c r="M4" t="n">
-        <v>32157.04676575315</v>
-      </c>
       <c r="N4" t="n">
+        <v>32157.04676575313</v>
+      </c>
+      <c r="O4" t="n">
         <v>32157.04676575314</v>
       </c>
-      <c r="O4" t="n">
-        <v>32157.04676575315</v>
-      </c>
       <c r="P4" t="n">
-        <v>32157.04676575315</v>
+        <v>32157.04676575314</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>74252.14048769325</v>
+        <v>74250.82245206833</v>
       </c>
       <c r="C6" t="n">
-        <v>77669.32716070389</v>
+        <v>77668.00912507914</v>
       </c>
       <c r="D6" t="n">
-        <v>77669.32716070383</v>
+        <v>77668.00912507885</v>
       </c>
       <c r="E6" t="n">
-        <v>-337840.9223944943</v>
+        <v>-338466.1033136604</v>
       </c>
       <c r="F6" t="n">
-        <v>207237.5212119212</v>
+        <v>206612.3402927553</v>
       </c>
       <c r="G6" t="n">
-        <v>207237.5212119213</v>
+        <v>206612.340292755</v>
       </c>
       <c r="H6" t="n">
-        <v>207237.5212119213</v>
+        <v>206612.3402927549</v>
       </c>
       <c r="I6" t="n">
-        <v>189437.4156819991</v>
+        <v>188918.1228211627</v>
       </c>
       <c r="J6" t="n">
-        <v>214783.7044862061</v>
+        <v>214264.4116253695</v>
       </c>
       <c r="K6" t="n">
-        <v>217451.6395126684</v>
+        <v>216932.3466518319</v>
       </c>
       <c r="L6" t="n">
-        <v>217451.6395126684</v>
+        <v>216932.3466518318</v>
       </c>
       <c r="M6" t="n">
-        <v>109522.6458477344</v>
+        <v>108897.4649285681</v>
       </c>
       <c r="N6" t="n">
-        <v>207237.5212119212</v>
+        <v>206612.340292755</v>
       </c>
       <c r="O6" t="n">
-        <v>207237.5212119212</v>
+        <v>206612.340292755</v>
       </c>
       <c r="P6" t="n">
-        <v>207237.5212119212</v>
+        <v>206612.340292755</v>
       </c>
     </row>
   </sheetData>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>400</v>
+        <v>398.0244380138589</v>
       </c>
       <c r="C2" t="n">
         <v>400</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>131.952702467699</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T2" t="n">
         <v>219.9844192126098</v>
@@ -27469,16 +27469,16 @@
         <v>119.2878878475953</v>
       </c>
       <c r="F3" t="n">
-        <v>97.67346769104822</v>
+        <v>98.88892783977828</v>
       </c>
       <c r="G3" t="n">
-        <v>105.9202115588047</v>
+        <v>95.72339823053244</v>
       </c>
       <c r="H3" t="n">
         <v>59.84292750636887</v>
       </c>
       <c r="I3" t="n">
-        <v>20.54110546596223</v>
+        <v>10.34429213768998</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27511,10 +27511,10 @@
         <v>106.9101097868343</v>
       </c>
       <c r="T3" t="n">
-        <v>147.5516318465896</v>
+        <v>157.7484451748619</v>
       </c>
       <c r="U3" t="n">
-        <v>186.3959495736213</v>
+        <v>195.3773027531635</v>
       </c>
       <c r="V3" t="n">
         <v>211.5744117368965</v>
@@ -27542,7 +27542,7 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D4" t="n">
-        <v>157.8996982303191</v>
+        <v>147.7028849020468</v>
       </c>
       <c r="E4" t="n">
         <v>159.3017069803637</v>
@@ -27584,25 +27584,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>84.41999114135434</v>
+        <v>74.2231778130821</v>
       </c>
       <c r="S4" t="n">
-        <v>174.3310371106166</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T4" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U4" t="n">
-        <v>279.9701659793371</v>
+        <v>269.7733526510648</v>
       </c>
       <c r="V4" t="n">
-        <v>260.950074281601</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W4" t="n">
-        <v>266.0821545179421</v>
+        <v>267.2976146666722</v>
       </c>
       <c r="X4" t="n">
-        <v>226.9790703393713</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y4" t="n">
         <v>222.4883416251229</v>
@@ -27666,10 +27666,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>133.9282644538401</v>
+        <v>131.952702467699</v>
       </c>
       <c r="T5" t="n">
-        <v>218.0088572264686</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U5" t="n">
         <v>254.489886823085</v>
@@ -27694,28 +27694,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>128.7031889809585</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C6" t="n">
-        <v>122.4583072102715</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D6" t="n">
         <v>115.7281862028015</v>
       </c>
       <c r="E6" t="n">
-        <v>119.2878878475953</v>
+        <v>110.3065346680531</v>
       </c>
       <c r="F6" t="n">
-        <v>98.88892783977828</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G6" t="n">
         <v>95.72339823053244</v>
       </c>
       <c r="H6" t="n">
-        <v>70.03974083464111</v>
+        <v>59.84292750636887</v>
       </c>
       <c r="I6" t="n">
-        <v>20.54110546596223</v>
+        <v>10.34429213768998</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27779,7 +27779,7 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D7" t="n">
-        <v>157.8996982303191</v>
+        <v>148.9183450507769</v>
       </c>
       <c r="E7" t="n">
         <v>159.3017069803637</v>
@@ -27827,16 +27827,16 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T7" t="n">
-        <v>237.1532516330649</v>
+        <v>226.9564383047927</v>
       </c>
       <c r="U7" t="n">
         <v>269.7733526510648</v>
       </c>
       <c r="V7" t="n">
-        <v>260.950074281601</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W7" t="n">
-        <v>267.2976146666722</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
         <v>235.9604235189134</v>
@@ -27940,13 +27940,13 @@
         <v>115.7281862028015</v>
       </c>
       <c r="E9" t="n">
-        <v>119.2878878475953</v>
+        <v>110.3065346680531</v>
       </c>
       <c r="F9" t="n">
-        <v>107.8702810193205</v>
+        <v>97.67346769104822</v>
       </c>
       <c r="G9" t="n">
-        <v>105.9202115588047</v>
+        <v>95.72339823053244</v>
       </c>
       <c r="H9" t="n">
         <v>70.03974083464111</v>
@@ -27985,16 +27985,16 @@
         <v>106.9101097868343</v>
       </c>
       <c r="T9" t="n">
-        <v>147.5516318465896</v>
+        <v>157.7484451748619</v>
       </c>
       <c r="U9" t="n">
-        <v>185.1804894248912</v>
+        <v>195.3773027531635</v>
       </c>
       <c r="V9" t="n">
         <v>211.5744117368965</v>
       </c>
       <c r="W9" t="n">
-        <v>202.1194834014923</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X9" t="n">
         <v>174.5627220424961</v>
@@ -28010,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>176.8413561505618</v>
+        <v>175.6258960018317</v>
       </c>
       <c r="C10" t="n">
-        <v>169.3824387139007</v>
+        <v>159.1856253856284</v>
       </c>
       <c r="D10" t="n">
         <v>157.8996982303191</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>84.41999114135434</v>
+        <v>74.2231778130821</v>
       </c>
       <c r="S10" t="n">
         <v>184.5278504388888</v>
@@ -28070,16 +28070,16 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V10" t="n">
-        <v>260.950074281601</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W10" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7636101906412</v>
+        <v>226.9790703393712</v>
       </c>
       <c r="Y10" t="n">
-        <v>212.2915282968507</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="11">
@@ -34701,25 +34701,25 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
         <v>9.784820870564277</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>10.19681332827224</v>
       </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
       <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
         <v>10.19681332827224</v>
       </c>
-      <c r="O2" t="n">
+      <c r="Q2" t="n">
         <v>10.19681332827224</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
+        <v>10.19681332827224</v>
+      </c>
+      <c r="K3" t="n">
         <v>9.784820870564277</v>
       </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
         <v>10.19681332827224</v>
-      </c>
-      <c r="N3" t="n">
-        <v>10.19681332827224</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -34856,25 +34856,25 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>10.19681332827224</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>10.19681332827224</v>
       </c>
       <c r="L4" t="n">
         <v>10.19681332827224</v>
       </c>
       <c r="M4" t="n">
-        <v>10.19681332827224</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>10.19681332827224</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
         <v>9.784820870564275</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34941,22 +34941,22 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>10.19681332827224</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>9.784820870564277</v>
       </c>
       <c r="N5" t="n">
-        <v>10.19681332827224</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
         <v>10.19681332827224</v>
       </c>
       <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
         <v>10.19681332827224</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>9.784820870564275</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,19 +35014,19 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>10.19681332827224</v>
       </c>
       <c r="K6" t="n">
         <v>10.19681332827224</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>9.784820870564275</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>9.784820870564277</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -35035,7 +35035,7 @@
         <v>10.19681332827224</v>
       </c>
       <c r="Q6" t="n">
-        <v>10.19681332827224</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35099,13 +35099,13 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>9.784820870564277</v>
       </c>
       <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
         <v>10.19681332827224</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
       </c>
       <c r="O7" t="n">
         <v>10.19681332827224</v>
@@ -35114,7 +35114,7 @@
         <v>10.19681332827224</v>
       </c>
       <c r="Q7" t="n">
-        <v>9.784820870564275</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35178,7 +35178,7 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>10.19681332827224</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35190,7 +35190,7 @@
         <v>9.784820870564277</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>10.19681332827224</v>
       </c>
       <c r="Q8" t="n">
         <v>10.19681332827224</v>
@@ -35251,13 +35251,13 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>9.784820870564277</v>
       </c>
       <c r="K9" t="n">
-        <v>9.784820870564277</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>10.19681332827224</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35266,13 +35266,13 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
         <v>10.19681332827224</v>
       </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
       <c r="Q9" t="n">
-        <v>10.19681332827224</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>10.19681332827224</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>10.19681332827224</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>10.19681332827224</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
       </c>
       <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>9.784820870564275</v>
+      </c>
+      <c r="Q10" t="n">
         <v>10.19681332827224</v>
-      </c>
-      <c r="N10" t="n">
-        <v>9.784820870564277</v>
-      </c>
-      <c r="O10" t="n">
-        <v>10.19681332827224</v>
-      </c>
-      <c r="P10" t="n">
-        <v>10.19681332827224</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35409,16 +35409,16 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>95.08869646809055</v>
+        <v>425.1652892839786</v>
       </c>
       <c r="K11" t="n">
-        <v>163.2699733591355</v>
+        <v>256.6067360563437</v>
       </c>
       <c r="L11" t="n">
-        <v>388.5375837958247</v>
+        <v>217.6470145761536</v>
       </c>
       <c r="M11" t="n">
-        <v>507.6527050538916</v>
+        <v>255.1299187604666</v>
       </c>
       <c r="N11" t="n">
         <v>261.1456546401969</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>16.01225130798013</v>
       </c>
       <c r="J12" t="n">
         <v>295.0656670593178</v>
@@ -35497,7 +35497,7 @@
         <v>174.4044477934842</v>
       </c>
       <c r="M12" t="n">
-        <v>274.0883134929614</v>
+        <v>211.4404832463787</v>
       </c>
       <c r="N12" t="n">
         <v>222.9311293244675</v>
@@ -35506,7 +35506,7 @@
         <v>194.8485139829364</v>
       </c>
       <c r="P12" t="n">
-        <v>148.4741289747634</v>
+        <v>195.1097079133658</v>
       </c>
       <c r="Q12" t="n">
         <v>488.9003994547513</v>
@@ -35570,22 +35570,22 @@
         <v>77.15305945873459</v>
       </c>
       <c r="K13" t="n">
-        <v>259.5239277409632</v>
+        <v>159.5393527766491</v>
       </c>
       <c r="L13" t="n">
-        <v>394.8521162440247</v>
+        <v>77.70149883491052</v>
       </c>
       <c r="M13" t="n">
         <v>431.7091280229532</v>
       </c>
       <c r="N13" t="n">
-        <v>266.2788192722568</v>
+        <v>419.8812000566767</v>
       </c>
       <c r="O13" t="n">
         <v>387.9904093184043</v>
       </c>
       <c r="P13" t="n">
-        <v>51.87061466828369</v>
+        <v>315.4034262572919</v>
       </c>
       <c r="Q13" t="n">
         <v>140.7215250837282</v>
@@ -35646,13 +35646,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>95.08869646809055</v>
+        <v>425.1652892839786</v>
       </c>
       <c r="K14" t="n">
-        <v>163.2699733591355</v>
+        <v>256.6067360563437</v>
       </c>
       <c r="L14" t="n">
-        <v>507.6527050538916</v>
+        <v>217.6470145761536</v>
       </c>
       <c r="M14" t="n">
         <v>255.1299187604666</v>
@@ -35661,7 +35661,7 @@
         <v>261.1456546401969</v>
       </c>
       <c r="O14" t="n">
-        <v>374.5447673464857</v>
+        <v>241.1371023111276</v>
       </c>
       <c r="P14" t="n">
         <v>191.6908921125779</v>
@@ -35725,19 +35725,19 @@
         <v>16.01225130798013</v>
       </c>
       <c r="J15" t="n">
-        <v>48.93596607483978</v>
+        <v>295.0656670593178</v>
       </c>
       <c r="K15" t="n">
-        <v>115.6117887244592</v>
+        <v>507.6527050538916</v>
       </c>
       <c r="L15" t="n">
         <v>174.4044477934842</v>
       </c>
       <c r="M15" t="n">
-        <v>507.6527050538916</v>
+        <v>211.4404832463787</v>
       </c>
       <c r="N15" t="n">
-        <v>507.6527050538916</v>
+        <v>222.9311293244675</v>
       </c>
       <c r="O15" t="n">
         <v>194.8485139829364</v>
@@ -35746,7 +35746,7 @@
         <v>148.4741289747634</v>
       </c>
       <c r="Q15" t="n">
-        <v>200.7318818408951</v>
+        <v>143.4950620639215</v>
       </c>
       <c r="R15" t="n">
         <v>95.77521100220724</v>
@@ -35804,25 +35804,25 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>11.49511639677865</v>
+        <v>77.15305945873459</v>
       </c>
       <c r="K16" t="n">
-        <v>259.5239277409632</v>
+        <v>105.9215469565432</v>
       </c>
       <c r="L16" t="n">
         <v>394.8521162440247</v>
       </c>
       <c r="M16" t="n">
-        <v>415.6200619918703</v>
+        <v>431.7091280229532</v>
       </c>
       <c r="N16" t="n">
-        <v>84.49301677628729</v>
+        <v>419.8812000566767</v>
       </c>
       <c r="O16" t="n">
         <v>387.9904093184043</v>
       </c>
       <c r="P16" t="n">
-        <v>315.4034262572919</v>
+        <v>51.87061466828369</v>
       </c>
       <c r="Q16" t="n">
         <v>140.7215250837282</v>
@@ -35883,10 +35883,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>95.08869646809055</v>
+        <v>390.2236003891251</v>
       </c>
       <c r="K17" t="n">
-        <v>320.1677261294676</v>
+        <v>163.2699733591355</v>
       </c>
       <c r="L17" t="n">
         <v>217.6470145761536</v>
@@ -35898,7 +35898,7 @@
         <v>261.1456546401969</v>
       </c>
       <c r="O17" t="n">
-        <v>507.6527050538916</v>
+        <v>241.1371023111276</v>
       </c>
       <c r="P17" t="n">
         <v>191.6908921125779</v>
@@ -35907,7 +35907,7 @@
         <v>124.2448441148263</v>
       </c>
       <c r="R17" t="n">
-        <v>37.33214795367776</v>
+        <v>165.6105995457395</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,10 +35959,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>16.01225130798013</v>
       </c>
       <c r="J18" t="n">
-        <v>48.93596607483978</v>
+        <v>295.0656670593178</v>
       </c>
       <c r="K18" t="n">
         <v>115.6117887244592</v>
@@ -35977,16 +35977,16 @@
         <v>222.9311293244675</v>
       </c>
       <c r="O18" t="n">
-        <v>507.6527050538916</v>
+        <v>194.8485139829364</v>
       </c>
       <c r="P18" t="n">
-        <v>233.3057686065673</v>
+        <v>195.1097079133658</v>
       </c>
       <c r="Q18" t="n">
         <v>488.9003994547513</v>
       </c>
       <c r="R18" t="n">
-        <v>6.916911530509005</v>
+        <v>95.77521100220724</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,13 +36041,13 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>77.15305945873459</v>
+        <v>11.49511639677865</v>
       </c>
       <c r="K19" t="n">
-        <v>259.5239277409632</v>
+        <v>51.16009583620144</v>
       </c>
       <c r="L19" t="n">
-        <v>295.9742566167991</v>
+        <v>394.8521162440247</v>
       </c>
       <c r="M19" t="n">
         <v>431.7091280229532</v>
@@ -36056,13 +36056,13 @@
         <v>419.8812000566767</v>
       </c>
       <c r="O19" t="n">
-        <v>69.73307657220178</v>
+        <v>387.9904093184043</v>
       </c>
       <c r="P19" t="n">
-        <v>315.4034262572919</v>
+        <v>299.8394636039524</v>
       </c>
       <c r="Q19" t="n">
-        <v>140.7215250837282</v>
+        <v>13.17207033035739</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,19 +36123,19 @@
         <v>95.08869646809055</v>
       </c>
       <c r="K20" t="n">
-        <v>163.2699733591355</v>
+        <v>296.6776383944937</v>
       </c>
       <c r="L20" t="n">
-        <v>217.6470145761536</v>
+        <v>507.6527050538917</v>
       </c>
       <c r="M20" t="n">
         <v>255.1299187604666</v>
       </c>
       <c r="N20" t="n">
-        <v>507.6527050538917</v>
+        <v>261.1456546401969</v>
       </c>
       <c r="O20" t="n">
-        <v>418.0434074105292</v>
+        <v>241.1371023111276</v>
       </c>
       <c r="P20" t="n">
         <v>191.6908921125779</v>
@@ -36196,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>16.01225130798013</v>
       </c>
       <c r="J21" t="n">
-        <v>48.93596607483978</v>
+        <v>295.0656670593178</v>
       </c>
       <c r="K21" t="n">
-        <v>507.6527050538917</v>
+        <v>115.6117887244592</v>
       </c>
       <c r="L21" t="n">
-        <v>305.3486520977639</v>
+        <v>174.4044477934842</v>
       </c>
       <c r="M21" t="n">
         <v>211.4404832463787</v>
       </c>
       <c r="N21" t="n">
-        <v>507.6527050538917</v>
+        <v>222.9311293244675</v>
       </c>
       <c r="O21" t="n">
         <v>194.8485139829364</v>
       </c>
       <c r="P21" t="n">
-        <v>148.4741289747634</v>
+        <v>195.1097079133658</v>
       </c>
       <c r="Q21" t="n">
-        <v>78.82953379437379</v>
+        <v>488.9003994547513</v>
       </c>
       <c r="R21" t="n">
-        <v>6.916911530509005</v>
+        <v>95.77521100220724</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36281,10 +36281,10 @@
         <v>11.49511639677865</v>
       </c>
       <c r="K22" t="n">
-        <v>259.5239277409632</v>
+        <v>51.16009583620144</v>
       </c>
       <c r="L22" t="n">
-        <v>77.70149883491052</v>
+        <v>394.8521162440247</v>
       </c>
       <c r="M22" t="n">
         <v>431.7091280229532</v>
@@ -36296,10 +36296,10 @@
         <v>387.9904093184043</v>
       </c>
       <c r="P22" t="n">
-        <v>315.4034262572919</v>
+        <v>299.8394636039526</v>
       </c>
       <c r="Q22" t="n">
-        <v>106.3948931813705</v>
+        <v>13.17207033035739</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>95.08869646809055</v>
+        <v>425.1652892839786</v>
       </c>
       <c r="K23" t="n">
         <v>163.2699733591355</v>
@@ -36366,16 +36366,16 @@
         <v>613.0006235359564</v>
       </c>
       <c r="M23" t="n">
-        <v>613.0006235359564</v>
+        <v>255.1299187604666</v>
       </c>
       <c r="N23" t="n">
-        <v>261.1456546401969</v>
+        <v>376.2640007510299</v>
       </c>
       <c r="O23" t="n">
         <v>241.1371023111276</v>
       </c>
       <c r="P23" t="n">
-        <v>279.0151262638094</v>
+        <v>191.6908921125779</v>
       </c>
       <c r="Q23" t="n">
         <v>124.2448441148263</v>
@@ -36433,16 +36433,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>16.01225130798013</v>
       </c>
       <c r="J24" t="n">
-        <v>48.93596607483978</v>
+        <v>295.0656670593178</v>
       </c>
       <c r="K24" t="n">
-        <v>613.0006235359564</v>
+        <v>162.247367663062</v>
       </c>
       <c r="L24" t="n">
-        <v>484.7223093451239</v>
+        <v>174.4044477934842</v>
       </c>
       <c r="M24" t="n">
         <v>211.4404832463787</v>
@@ -36457,10 +36457,10 @@
         <v>148.4741289747634</v>
       </c>
       <c r="Q24" t="n">
-        <v>78.82953379437379</v>
+        <v>488.9003994547513</v>
       </c>
       <c r="R24" t="n">
-        <v>6.916911530509005</v>
+        <v>95.77521100220724</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36612,13 +36612,13 @@
         <v>241.1371023111276</v>
       </c>
       <c r="P26" t="n">
-        <v>613.0006235359564</v>
+        <v>191.6908921125779</v>
       </c>
       <c r="Q26" t="n">
-        <v>124.2448441148263</v>
+        <v>506.4383475934006</v>
       </c>
       <c r="R26" t="n">
-        <v>126.4943716009352</v>
+        <v>165.6105995457395</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,13 +36670,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>16.01225130798013</v>
       </c>
       <c r="J27" t="n">
-        <v>295.0656670593178</v>
+        <v>48.93596607483978</v>
       </c>
       <c r="K27" t="n">
-        <v>613.0006235359564</v>
+        <v>115.6117887244592</v>
       </c>
       <c r="L27" t="n">
         <v>174.4044477934842</v>
@@ -36688,13 +36688,13 @@
         <v>222.9311293244675</v>
       </c>
       <c r="O27" t="n">
-        <v>194.8485139829364</v>
+        <v>522.0164644769003</v>
       </c>
       <c r="P27" t="n">
-        <v>148.4741289747634</v>
+        <v>613.0006235359564</v>
       </c>
       <c r="Q27" t="n">
-        <v>143.0176943615354</v>
+        <v>78.82953379437379</v>
       </c>
       <c r="R27" t="n">
         <v>6.916911530509005</v>
@@ -36831,25 +36831,25 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>95.08869646809055</v>
+        <v>425.1652892839786</v>
       </c>
       <c r="K29" t="n">
-        <v>163.2699733591355</v>
+        <v>613.0006235359564</v>
       </c>
       <c r="L29" t="n">
         <v>217.6470145761536</v>
       </c>
       <c r="M29" t="n">
-        <v>322.5137663278528</v>
+        <v>255.1299187604666</v>
       </c>
       <c r="N29" t="n">
-        <v>613.0006235359564</v>
+        <v>321.8869595340116</v>
       </c>
       <c r="O29" t="n">
         <v>241.1371023111276</v>
       </c>
       <c r="P29" t="n">
-        <v>613.0006235359564</v>
+        <v>191.6908921125779</v>
       </c>
       <c r="Q29" t="n">
         <v>124.2448441148263</v>
@@ -36910,10 +36910,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>48.93596607483978</v>
+        <v>295.0656670593178</v>
       </c>
       <c r="K30" t="n">
-        <v>613.0006235359564</v>
+        <v>198.2609904199307</v>
       </c>
       <c r="L30" t="n">
         <v>174.4044477934842</v>
@@ -36922,7 +36922,7 @@
         <v>211.4404832463787</v>
       </c>
       <c r="N30" t="n">
-        <v>222.9311293244675</v>
+        <v>613.0006235359564</v>
       </c>
       <c r="O30" t="n">
         <v>194.8485139829364</v>
@@ -36931,10 +36931,10 @@
         <v>148.4741289747634</v>
       </c>
       <c r="Q30" t="n">
-        <v>389.1473953460135</v>
+        <v>78.82953379437379</v>
       </c>
       <c r="R30" t="n">
-        <v>6.916911530509005</v>
+        <v>95.77521100220724</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37068,22 +37068,22 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>95.08869646809055</v>
+        <v>425.1652892839786</v>
       </c>
       <c r="K32" t="n">
-        <v>163.2699733591355</v>
+        <v>278.3883194699685</v>
       </c>
       <c r="L32" t="n">
-        <v>217.6470145761536</v>
+        <v>613.0006235359564</v>
       </c>
       <c r="M32" t="n">
-        <v>371.9599765264023</v>
+        <v>255.1299187604666</v>
       </c>
       <c r="N32" t="n">
-        <v>613.0006235359564</v>
+        <v>261.1456546401969</v>
       </c>
       <c r="O32" t="n">
-        <v>613.0006235359564</v>
+        <v>241.1371023111276</v>
       </c>
       <c r="P32" t="n">
         <v>191.6908921125779</v>
@@ -37156,19 +37156,19 @@
         <v>174.4044477934842</v>
       </c>
       <c r="M33" t="n">
-        <v>600.9950700564955</v>
+        <v>211.4404832463787</v>
       </c>
       <c r="N33" t="n">
         <v>222.9311293244675</v>
       </c>
       <c r="O33" t="n">
-        <v>613.0006235359564</v>
+        <v>194.8485139829364</v>
       </c>
       <c r="P33" t="n">
-        <v>148.4741289747634</v>
+        <v>546.1099596775229</v>
       </c>
       <c r="Q33" t="n">
-        <v>78.82953379437379</v>
+        <v>488.9003994547513</v>
       </c>
       <c r="R33" t="n">
         <v>6.916911530509005</v>
@@ -37305,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>95.08869646809055</v>
+        <v>390.2236003891251</v>
       </c>
       <c r="K35" t="n">
         <v>163.2699733591355</v>
@@ -37323,7 +37323,7 @@
         <v>241.1371023111276</v>
       </c>
       <c r="P35" t="n">
-        <v>486.8257960336124</v>
+        <v>191.6908921125779</v>
       </c>
       <c r="Q35" t="n">
         <v>124.2448441148263</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>16.01225130798013</v>
       </c>
       <c r="J36" t="n">
         <v>295.0656670593178</v>
@@ -37396,19 +37396,19 @@
         <v>211.4404832463787</v>
       </c>
       <c r="N36" t="n">
-        <v>471.7039336321709</v>
+        <v>507.6527050538916</v>
       </c>
       <c r="O36" t="n">
-        <v>507.6527050538916</v>
+        <v>194.8485139829364</v>
       </c>
       <c r="P36" t="n">
         <v>148.4741289747634</v>
       </c>
       <c r="Q36" t="n">
-        <v>78.82953379437379</v>
+        <v>250.8144026639296</v>
       </c>
       <c r="R36" t="n">
-        <v>6.916911530509005</v>
+        <v>95.77521100220724</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>11.49511639677865</v>
+        <v>77.15305945873459</v>
       </c>
       <c r="K37" t="n">
-        <v>256.4975365247288</v>
+        <v>259.5239277409632</v>
       </c>
       <c r="L37" t="n">
         <v>394.8521162440247</v>
@@ -37478,7 +37478,7 @@
         <v>419.8812000566767</v>
       </c>
       <c r="O37" t="n">
-        <v>387.9904093184043</v>
+        <v>319.306075040214</v>
       </c>
       <c r="P37" t="n">
         <v>315.4034262572919</v>
@@ -37545,10 +37545,10 @@
         <v>95.08869646809055</v>
       </c>
       <c r="K38" t="n">
-        <v>507.6527050538916</v>
+        <v>163.2699733591355</v>
       </c>
       <c r="L38" t="n">
-        <v>217.6470145761536</v>
+        <v>257.6525091501843</v>
       </c>
       <c r="M38" t="n">
         <v>255.1299187604666</v>
@@ -37557,13 +37557,13 @@
         <v>261.1456546401969</v>
       </c>
       <c r="O38" t="n">
-        <v>320.1677261294676</v>
+        <v>241.1371023111276</v>
       </c>
       <c r="P38" t="n">
         <v>191.6908921125779</v>
       </c>
       <c r="Q38" t="n">
-        <v>124.2448441148263</v>
+        <v>507.6527050538916</v>
       </c>
       <c r="R38" t="n">
         <v>37.33214795367776</v>
@@ -37621,7 +37621,7 @@
         <v>16.01225130798013</v>
       </c>
       <c r="J39" t="n">
-        <v>48.93596607483978</v>
+        <v>295.0656670593178</v>
       </c>
       <c r="K39" t="n">
         <v>115.6117887244592</v>
@@ -37633,19 +37633,19 @@
         <v>211.4404832463787</v>
       </c>
       <c r="N39" t="n">
-        <v>291.7505176482913</v>
+        <v>222.9311293244675</v>
       </c>
       <c r="O39" t="n">
-        <v>507.6527050538916</v>
+        <v>194.8485139829364</v>
       </c>
       <c r="P39" t="n">
-        <v>148.4741289747634</v>
+        <v>195.1097079133658</v>
       </c>
       <c r="Q39" t="n">
         <v>488.9003994547513</v>
       </c>
       <c r="R39" t="n">
-        <v>6.916911530509005</v>
+        <v>95.77521100220724</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>11.49511639677865</v>
+        <v>77.15305945873459</v>
       </c>
       <c r="K40" t="n">
-        <v>256.4975365247288</v>
+        <v>259.5239277409632</v>
       </c>
       <c r="L40" t="n">
-        <v>394.8521162440247</v>
+        <v>295.9742566167991</v>
       </c>
       <c r="M40" t="n">
-        <v>83.25826992771533</v>
+        <v>431.7091280229532</v>
       </c>
       <c r="N40" t="n">
         <v>419.8812000566767</v>
       </c>
       <c r="O40" t="n">
-        <v>387.9904093184043</v>
+        <v>69.73307657220178</v>
       </c>
       <c r="P40" t="n">
         <v>315.4034262572919</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>95.08869646809055</v>
+        <v>390.2236003891251</v>
       </c>
       <c r="K41" t="n">
         <v>163.2699733591355</v>
@@ -37800,7 +37800,7 @@
         <v>191.6908921125779</v>
       </c>
       <c r="Q41" t="n">
-        <v>419.3797480358608</v>
+        <v>124.2448441148263</v>
       </c>
       <c r="R41" t="n">
         <v>165.6105995457395</v>
@@ -37858,7 +37858,7 @@
         <v>16.01225130798013</v>
       </c>
       <c r="J42" t="n">
-        <v>48.93596607483978</v>
+        <v>295.0656670593178</v>
       </c>
       <c r="K42" t="n">
         <v>115.6117887244592</v>
@@ -37867,22 +37867,22 @@
         <v>174.4044477934842</v>
       </c>
       <c r="M42" t="n">
-        <v>507.6527050538916</v>
+        <v>211.4404832463787</v>
       </c>
       <c r="N42" t="n">
-        <v>405.6091615011559</v>
+        <v>222.9311293244675</v>
       </c>
       <c r="O42" t="n">
-        <v>507.6527050538916</v>
+        <v>194.8485139829364</v>
       </c>
       <c r="P42" t="n">
-        <v>148.4741289747634</v>
+        <v>195.1097079133658</v>
       </c>
       <c r="Q42" t="n">
-        <v>78.82953379437379</v>
+        <v>488.9003994547513</v>
       </c>
       <c r="R42" t="n">
-        <v>6.916911530509005</v>
+        <v>95.77521100220724</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37946,16 +37946,16 @@
         <v>394.8521162440247</v>
       </c>
       <c r="M43" t="n">
-        <v>278.1067472385333</v>
+        <v>431.7091280229532</v>
       </c>
       <c r="N43" t="n">
-        <v>419.8812000566767</v>
+        <v>84.49301677628729</v>
       </c>
       <c r="O43" t="n">
-        <v>387.9904093184043</v>
+        <v>306.2434002253656</v>
       </c>
       <c r="P43" t="n">
-        <v>51.87061466828369</v>
+        <v>315.4034262572919</v>
       </c>
       <c r="Q43" t="n">
         <v>140.7215250837282</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>425.1652892839786</v>
+        <v>95.08869646809055</v>
       </c>
       <c r="K44" t="n">
         <v>163.2699733591355</v>
@@ -38037,10 +38037,10 @@
         <v>191.6908921125779</v>
       </c>
       <c r="Q44" t="n">
-        <v>124.2448441148263</v>
+        <v>419.3797480358608</v>
       </c>
       <c r="R44" t="n">
-        <v>130.6689106508859</v>
+        <v>165.6105995457395</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,10 +38095,10 @@
         <v>16.01225130798013</v>
       </c>
       <c r="J45" t="n">
-        <v>48.93596607483978</v>
+        <v>295.0656670593178</v>
       </c>
       <c r="K45" t="n">
-        <v>507.6527050538916</v>
+        <v>162.2473676630618</v>
       </c>
       <c r="L45" t="n">
         <v>174.4044477934842</v>
@@ -38116,7 +38116,7 @@
         <v>148.4741289747634</v>
       </c>
       <c r="Q45" t="n">
-        <v>389.6247630483996</v>
+        <v>488.9003994547513</v>
       </c>
       <c r="R45" t="n">
         <v>95.77521100220724</v>
@@ -38186,16 +38186,16 @@
         <v>431.7091280229532</v>
       </c>
       <c r="N46" t="n">
-        <v>84.49301677628729</v>
+        <v>419.8812000566767</v>
       </c>
       <c r="O46" t="n">
-        <v>387.9904093184043</v>
+        <v>234.3880285339845</v>
       </c>
       <c r="P46" t="n">
-        <v>315.4034262572919</v>
+        <v>51.87061466828369</v>
       </c>
       <c r="Q46" t="n">
-        <v>58.9745159906895</v>
+        <v>140.7215250837282</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
